--- a/Tower-Data.xlsx
+++ b/Tower-Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tower-Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="62">
   <si>
     <t>Kosten</t>
   </si>
@@ -128,9 +128,6 @@
     <t>Marine</t>
   </si>
   <si>
-    <t>Private</t>
-  </si>
-  <si>
     <t>Tank</t>
   </si>
   <si>
@@ -209,7 +206,13 @@
     <t>Investition</t>
   </si>
   <si>
-    <t>Amortisierung! Nach 1 Minute</t>
+    <t>Amortisierung! Nach 50 sek</t>
+  </si>
+  <si>
+    <t>Spec-Ops</t>
+  </si>
+  <si>
+    <t>Milisekunden bis zum nächsten Shot</t>
   </si>
 </sst>
 </file>
@@ -370,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -384,6 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -664,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AD58"/>
+  <dimension ref="B1:AD59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,19 +694,19 @@
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -740,43 +744,46 @@
         <v>32</v>
       </c>
       <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>36</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>37</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>38</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>39</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AA2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.3">
@@ -847,6 +854,10 @@
         <f>AA11/(K3/3)</f>
         <v>150</v>
       </c>
+      <c r="W3">
+        <f>AA12/K3</f>
+        <v>7</v>
+      </c>
       <c r="Z3" s="10" t="s">
         <v>32</v>
       </c>
@@ -930,8 +941,12 @@
         <f>AA11/(K4/3)</f>
         <v>89.285714285714278</v>
       </c>
+      <c r="W4">
+        <f>AA12/K4</f>
+        <v>4.1666666666666661</v>
+      </c>
       <c r="Z4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA4" s="2">
         <v>40</v>
@@ -1013,8 +1028,12 @@
         <f>AA11/(K5/3)</f>
         <v>59.523809523809533</v>
       </c>
+      <c r="W5">
+        <f>AA12/K5</f>
+        <v>2.7777777777777781</v>
+      </c>
       <c r="Z5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA5" s="2">
         <v>100</v>
@@ -1098,8 +1117,12 @@
         <f>AA11/(K6/3)</f>
         <v>42.61363636363636</v>
       </c>
+      <c r="W6">
+        <f>AA12/K6</f>
+        <v>1.9886363636363635</v>
+      </c>
       <c r="Z6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA6" s="2">
         <v>20</v>
@@ -1183,8 +1206,12 @@
         <f>AA11/(K7/3)</f>
         <v>28.846153846153847</v>
       </c>
+      <c r="W7">
+        <f>AA12/K7</f>
+        <v>1.3461538461538463</v>
+      </c>
       <c r="Z7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA7" s="2">
         <v>50</v>
@@ -1201,7 +1228,7 @@
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.3">
       <c r="Z8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA8" s="2">
         <v>180</v>
@@ -1218,7 +1245,7 @@
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.3">
       <c r="Z9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA9" s="2">
         <v>20</v>
@@ -1235,7 +1262,7 @@
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.3">
       <c r="Z10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA10" s="2">
         <v>25</v>
@@ -1252,7 +1279,7 @@
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.3">
       <c r="Z11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA11" s="2">
         <v>250</v>
@@ -1268,11 +1295,21 @@
       </c>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
+      <c r="Z12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="2:30" x14ac:dyDescent="0.3">
       <c r="Z13" s="2"/>
@@ -1323,13 +1360,16 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
+      <c r="W15" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
@@ -1404,6 +1444,10 @@
         <f>AA24/K16</f>
         <v>27.777777777777779</v>
       </c>
+      <c r="W16">
+        <f>AA25/(K16/3)</f>
+        <v>11.666666666666666</v>
+      </c>
       <c r="Z16" s="10" t="s">
         <v>32</v>
       </c>
@@ -1487,8 +1531,12 @@
         <f>AA24/K17</f>
         <v>17.361111111111114</v>
       </c>
+      <c r="W17">
+        <f>AA25/(K17/3)</f>
+        <v>7.291666666666667</v>
+      </c>
       <c r="Z17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA17" s="2">
         <v>40</v>
@@ -1570,8 +1618,12 @@
         <f>AA24/K18</f>
         <v>12.626262626262626</v>
       </c>
+      <c r="W18">
+        <f>AA25/(K18/3)</f>
+        <v>5.3030303030303028</v>
+      </c>
       <c r="Z18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA18" s="2">
         <v>100</v>
@@ -1655,8 +1707,12 @@
         <f>AA24/K19</f>
         <v>9.9206349206349209</v>
       </c>
+      <c r="W19">
+        <f>AA25/(K19/3)</f>
+        <v>4.1666666666666661</v>
+      </c>
       <c r="Z19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA19" s="2">
         <v>20</v>
@@ -1740,8 +1796,12 @@
         <f>AA24/K20</f>
         <v>8.3333333333333339</v>
       </c>
+      <c r="W20">
+        <f>AA25/(K20/3)</f>
+        <v>3.5</v>
+      </c>
       <c r="Z20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA20" s="2">
         <v>50</v>
@@ -1759,7 +1819,7 @@
     <row r="21" spans="2:30" x14ac:dyDescent="0.3">
       <c r="G21" s="6"/>
       <c r="Z21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA21" s="2">
         <v>180</v>
@@ -1777,7 +1837,7 @@
     <row r="22" spans="2:30" x14ac:dyDescent="0.3">
       <c r="G22" s="6"/>
       <c r="Z22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA22" s="2">
         <v>20</v>
@@ -1795,7 +1855,7 @@
     <row r="23" spans="2:30" x14ac:dyDescent="0.3">
       <c r="G23" s="6"/>
       <c r="Z23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA23" s="2">
         <v>25</v>
@@ -1813,7 +1873,7 @@
     <row r="24" spans="2:30" x14ac:dyDescent="0.3">
       <c r="G24" s="6"/>
       <c r="Z24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA24" s="2">
         <v>250</v>
@@ -1830,6 +1890,21 @@
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.3">
       <c r="G25" s="6"/>
+      <c r="Z25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA25" s="13">
+        <v>35</v>
+      </c>
+      <c r="AB25" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.3">
       <c r="G26" s="6"/>
@@ -1872,10 +1947,10 @@
         <v>20</v>
       </c>
       <c r="T30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.3">
@@ -1890,7 +1965,7 @@
         <v>200</v>
       </c>
       <c r="E31" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F31" s="2">
         <v>1.4999999999999999E-2</v>
@@ -1906,47 +1981,51 @@
       </c>
       <c r="K31">
         <f>E31*(F31*40)</f>
-        <v>3.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="L31">
         <f>K31/D31</f>
-        <v>1.7999999999999999E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="N31">
         <f>AA31/(K31)</f>
-        <v>4.166666666666667</v>
+        <v>3.125</v>
       </c>
       <c r="O31">
         <f>AA32/K31</f>
-        <v>11.111111111111112</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="P31">
         <f>AA33/K31</f>
-        <v>27.777777777777782</v>
+        <v>20.833333333333336</v>
       </c>
       <c r="Q31">
         <f>AA34/(K31/3)</f>
-        <v>16.666666666666668</v>
+        <v>12.500000000000002</v>
       </c>
       <c r="R31">
         <f>AA35/K31</f>
-        <v>13.888888888888891</v>
+        <v>10.416666666666668</v>
       </c>
       <c r="S31">
         <f>AA36/K31</f>
-        <v>50.000000000000007</v>
+        <v>37.5</v>
       </c>
       <c r="T31">
         <f>AA37/(K31/3)</f>
-        <v>16.666666666666668</v>
+        <v>12.500000000000002</v>
       </c>
       <c r="U31">
         <f>AA38/(K31/3)</f>
-        <v>20.833333333333336</v>
+        <v>15.625000000000002</v>
       </c>
       <c r="V31">
         <f>AA39/K31</f>
-        <v>69.444444444444457</v>
+        <v>52.083333333333336</v>
+      </c>
+      <c r="W31">
+        <f>AA40/(K31/3)</f>
+        <v>21.875000000000004</v>
       </c>
       <c r="Z31" s="10" t="s">
         <v>32</v>
@@ -1975,7 +2054,7 @@
         <v>450</v>
       </c>
       <c r="E32" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F32" s="2">
         <v>1.7999999999999999E-2</v>
@@ -1991,50 +2070,54 @@
       </c>
       <c r="K32">
         <f>E32*(F32*40)</f>
-        <v>5.04</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="L32">
         <f>K32/D32</f>
-        <v>1.12E-2</v>
+        <v>1.5999999999999997E-2</v>
       </c>
       <c r="N32">
         <f>AA31/K32</f>
-        <v>2.9761904761904763</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="O32">
         <f>AA32/K32</f>
-        <v>7.9365079365079367</v>
+        <v>5.5555555555555562</v>
       </c>
       <c r="P32">
         <f>AA33/K32</f>
-        <v>19.841269841269842</v>
+        <v>13.888888888888891</v>
       </c>
       <c r="Q32">
         <f>AA34/(K32/3)</f>
-        <v>11.904761904761905</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="R32">
         <f>AA35/K32</f>
-        <v>9.9206349206349209</v>
+        <v>6.9444444444444455</v>
       </c>
       <c r="S32">
         <f>AA36/K32</f>
-        <v>35.714285714285715</v>
+        <v>25.000000000000004</v>
       </c>
       <c r="T32">
         <f>AA37/(K32/3)</f>
-        <v>11.904761904761905</v>
+        <v>8.3333333333333339</v>
       </c>
       <c r="U32">
         <f>AA38/(K32/3)</f>
-        <v>14.880952380952381</v>
+        <v>10.416666666666668</v>
       </c>
       <c r="V32">
         <f>AA39/K32</f>
-        <v>49.603174603174601</v>
+        <v>34.722222222222229</v>
+      </c>
+      <c r="W32">
+        <f>AA40/(K32/3)</f>
+        <v>14.583333333333334</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA32" s="2">
         <v>40</v>
@@ -2060,7 +2143,7 @@
         <v>750</v>
       </c>
       <c r="E33" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F33" s="2">
         <v>2.1000000000000001E-2</v>
@@ -2076,50 +2159,54 @@
       </c>
       <c r="K33">
         <f>E33*(F33*40)</f>
-        <v>6.7200000000000006</v>
+        <v>10.080000000000002</v>
       </c>
       <c r="L33">
         <f>K33/D33</f>
-        <v>8.9600000000000009E-3</v>
+        <v>1.3440000000000002E-2</v>
       </c>
       <c r="N33">
         <f>AA31/K33</f>
-        <v>2.2321428571428568</v>
+        <v>1.4880952380952379</v>
       </c>
       <c r="O33">
         <f>AA32/K33</f>
-        <v>5.9523809523809517</v>
+        <v>3.9682539682539675</v>
       </c>
       <c r="P33">
         <f>AA33/K33</f>
-        <v>14.88095238095238</v>
+        <v>9.9206349206349191</v>
       </c>
       <c r="Q33">
         <f>AA34/(K33/3)</f>
-        <v>8.928571428571427</v>
+        <v>5.9523809523809508</v>
       </c>
       <c r="R33">
         <f>AA35/K33</f>
-        <v>7.4404761904761898</v>
+        <v>4.9603174603174596</v>
       </c>
       <c r="S33">
         <f>AA36/K33</f>
-        <v>26.785714285714285</v>
+        <v>17.857142857142854</v>
       </c>
       <c r="T33">
         <f>AA37/(K33/3)</f>
-        <v>8.928571428571427</v>
+        <v>5.9523809523809508</v>
       </c>
       <c r="U33">
         <f>AA38/(K33/3)</f>
-        <v>11.160714285714285</v>
+        <v>7.4404761904761889</v>
       </c>
       <c r="V33">
         <f>AA39/K33</f>
-        <v>37.202380952380949</v>
+        <v>24.801587301587297</v>
+      </c>
+      <c r="W33">
+        <f>AA40/(K33/3)</f>
+        <v>10.416666666666664</v>
       </c>
       <c r="Z33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA33" s="2">
         <v>100</v>
@@ -2147,7 +2234,7 @@
         <v>1100</v>
       </c>
       <c r="E34" s="2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F34" s="2">
         <v>2.4E-2</v>
@@ -2163,50 +2250,54 @@
       </c>
       <c r="K34">
         <f>E34*(F34*40)</f>
-        <v>8.64</v>
+        <v>13.44</v>
       </c>
       <c r="L34">
         <f>K34/D34</f>
-        <v>7.8545454545454543E-3</v>
+        <v>1.2218181818181817E-2</v>
       </c>
       <c r="N34">
         <f>AA31/K34</f>
-        <v>1.7361111111111109</v>
+        <v>1.1160714285714286</v>
       </c>
       <c r="O34">
         <f>AA32/K34</f>
-        <v>4.6296296296296298</v>
+        <v>2.9761904761904763</v>
       </c>
       <c r="P34">
         <f>AA33/K34</f>
-        <v>11.574074074074073</v>
+        <v>7.4404761904761907</v>
       </c>
       <c r="Q34">
         <f>AA34/(K34/3)</f>
-        <v>6.9444444444444438</v>
+        <v>4.4642857142857144</v>
       </c>
       <c r="R34">
         <f>AA35/K34</f>
-        <v>5.7870370370370363</v>
+        <v>3.7202380952380953</v>
       </c>
       <c r="S34">
         <f>AA36/K34</f>
-        <v>20.833333333333332</v>
+        <v>13.392857142857144</v>
       </c>
       <c r="T34">
         <f>AA37/(K34/3)</f>
-        <v>6.9444444444444438</v>
+        <v>4.4642857142857144</v>
       </c>
       <c r="U34">
         <f>AA38/(K34/3)</f>
-        <v>8.6805555555555554</v>
+        <v>5.5803571428571432</v>
       </c>
       <c r="V34">
         <f>AA39/K34</f>
-        <v>28.935185185185183</v>
+        <v>18.601190476190478</v>
+      </c>
+      <c r="W34">
+        <f>AA40/(K34/3)</f>
+        <v>7.8125000000000009</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA34" s="2">
         <v>20</v>
@@ -2234,7 +2325,7 @@
         <v>1500</v>
       </c>
       <c r="E35" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F35" s="2">
         <v>2.7E-2</v>
@@ -2250,50 +2341,54 @@
       </c>
       <c r="K35">
         <f>E35*(F35*40)</f>
-        <v>10.8</v>
+        <v>17.28</v>
       </c>
       <c r="L35">
         <f>K35/D35</f>
-        <v>7.2000000000000007E-3</v>
+        <v>1.1520000000000001E-2</v>
       </c>
       <c r="N35">
         <f>AA31/K35</f>
-        <v>1.3888888888888888</v>
+        <v>0.86805555555555547</v>
       </c>
       <c r="O35">
         <f>AA32/K35</f>
-        <v>3.7037037037037033</v>
+        <v>2.3148148148148149</v>
       </c>
       <c r="P35">
         <f>AA33/K35</f>
-        <v>9.2592592592592595</v>
+        <v>5.7870370370370363</v>
       </c>
       <c r="Q35">
         <f>AA34/(K35/3)</f>
-        <v>5.5555555555555554</v>
+        <v>3.4722222222222219</v>
       </c>
       <c r="R35">
         <f>AA35/K35</f>
-        <v>4.6296296296296298</v>
+        <v>2.8935185185185182</v>
       </c>
       <c r="S35">
         <f>AA36/K35</f>
-        <v>16.666666666666664</v>
+        <v>10.416666666666666</v>
       </c>
       <c r="T35">
         <f>AA37/(K35/3)</f>
-        <v>5.5555555555555554</v>
+        <v>3.4722222222222219</v>
       </c>
       <c r="U35">
         <f>AA38/(K35/3)</f>
-        <v>6.9444444444444446</v>
+        <v>4.3402777777777777</v>
       </c>
       <c r="V35">
         <f>AA39/K35</f>
-        <v>23.148148148148145</v>
+        <v>14.467592592592592</v>
+      </c>
+      <c r="W35">
+        <f>AA40/(K35/3)</f>
+        <v>6.0763888888888884</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA35" s="2">
         <v>50</v>
@@ -2310,7 +2405,7 @@
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.3">
       <c r="Z36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA36" s="2">
         <v>180</v>
@@ -2327,7 +2422,7 @@
     </row>
     <row r="37" spans="2:30" x14ac:dyDescent="0.3">
       <c r="Z37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA37" s="2">
         <v>20</v>
@@ -2344,7 +2439,7 @@
     </row>
     <row r="38" spans="2:30" x14ac:dyDescent="0.3">
       <c r="Z38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA38" s="2">
         <v>25</v>
@@ -2361,7 +2456,7 @@
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.3">
       <c r="Z39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA39" s="2">
         <v>250</v>
@@ -2374,6 +2469,23 @@
       </c>
       <c r="AD39" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="Z40" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA40" s="13">
+        <v>35</v>
+      </c>
+      <c r="AB40" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="2:30" x14ac:dyDescent="0.3">
@@ -2408,10 +2520,10 @@
         <v>20</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="2:30" x14ac:dyDescent="0.3">
@@ -2484,6 +2596,10 @@
         <f>AA58/K50</f>
         <v>125</v>
       </c>
+      <c r="W50">
+        <f>AA59/(K50/3)</f>
+        <v>52.5</v>
+      </c>
       <c r="Z50" s="10" t="s">
         <v>32</v>
       </c>
@@ -2569,8 +2685,12 @@
         <f>AA58/K51</f>
         <v>69.444444444444457</v>
       </c>
+      <c r="W51">
+        <f>AA59/(K51/3)</f>
+        <v>29.166666666666668</v>
+      </c>
       <c r="Z51" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA51" s="2">
         <v>40</v>
@@ -2654,8 +2774,12 @@
         <f>AA58/K52</f>
         <v>44.642857142857139</v>
       </c>
+      <c r="W52">
+        <f>AA59/(K52/3)</f>
+        <v>18.749999999999996</v>
+      </c>
       <c r="Z52" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA52" s="2">
         <v>100</v>
@@ -2741,8 +2865,12 @@
         <f>AA58/K53</f>
         <v>31.25</v>
       </c>
+      <c r="W53">
+        <f>AA59/(K53/3)</f>
+        <v>13.125</v>
+      </c>
       <c r="Z53" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA53" s="2">
         <v>20</v>
@@ -2828,8 +2956,12 @@
         <f>AA58/K54</f>
         <v>23.148148148148149</v>
       </c>
+      <c r="W54">
+        <f>AA59/(K54/3)</f>
+        <v>9.7222222222222232</v>
+      </c>
       <c r="Z54" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA54" s="2">
         <v>50</v>
@@ -2846,7 +2978,7 @@
     </row>
     <row r="55" spans="2:30" x14ac:dyDescent="0.3">
       <c r="Z55" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA55" s="2">
         <v>180</v>
@@ -2863,7 +2995,7 @@
     </row>
     <row r="56" spans="2:30" x14ac:dyDescent="0.3">
       <c r="Z56" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA56" s="2">
         <v>20</v>
@@ -2880,7 +3012,7 @@
     </row>
     <row r="57" spans="2:30" x14ac:dyDescent="0.3">
       <c r="Z57" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA57" s="2">
         <v>25</v>
@@ -2897,7 +3029,7 @@
     </row>
     <row r="58" spans="2:30" x14ac:dyDescent="0.3">
       <c r="Z58" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA58" s="2">
         <v>250</v>
@@ -2912,8 +3044,26 @@
         <v>12</v>
       </c>
     </row>
+    <row r="59" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="Z59" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA59" s="13">
+        <v>35</v>
+      </c>
+      <c r="AB59" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3248,20 +3398,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H33"/>
+  <dimension ref="B2:H1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
@@ -3273,7 +3423,9 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3286,9 +3438,15 @@
       <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <f>(1/C6)*1000</f>
+        <v>1000</v>
+      </c>
       <c r="C6">
         <f t="shared" ref="C6:C33" si="0">D6*40</f>
         <v>1</v>
@@ -3303,8 +3461,16 @@
         <f t="shared" ref="G6:G17" si="1">F6/40</f>
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="H6">
+        <f>(1/F6)*1000</f>
+        <v>1000</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <f>(1/C7)*1000</f>
+        <v>62.5</v>
+      </c>
       <c r="C7">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3319,8 +3485,16 @@
         <f t="shared" si="1"/>
         <v>1.2500000000000001E-2</v>
       </c>
+      <c r="H7">
+        <f>(1/F7)*1000</f>
+        <v>2000</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <f>(1/C8)*1000</f>
+        <v>125</v>
+      </c>
       <c r="C8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3335,8 +3509,16 @@
         <f t="shared" si="1"/>
         <v>6.2500000000000003E-3</v>
       </c>
+      <c r="H8">
+        <f>(1/F8)*1000</f>
+        <v>4000</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <f>(1/C9)*1000</f>
+        <v>20.833333333333332</v>
+      </c>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3351,8 +3533,16 @@
         <f t="shared" si="1"/>
         <v>3.7499999999999999E-2</v>
       </c>
+      <c r="H9">
+        <f>(1/F9)*1000</f>
+        <v>666.66666666666663</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <f>(1/C10)*1000</f>
+        <v>15.625</v>
+      </c>
       <c r="C10">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3367,8 +3557,16 @@
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
+      <c r="H10">
+        <f>(1/F10)*1000</f>
+        <v>500</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <f>(1/C11)*1000</f>
+        <v>1000</v>
+      </c>
       <c r="C11">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3381,8 +3579,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H11" t="e">
+        <f>(1/F11)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>(1/C12)*1000</f>
+        <v>625</v>
+      </c>
       <c r="C12">
         <f t="shared" si="0"/>
         <v>1.6</v>
@@ -3395,8 +3601,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H12" t="e">
+        <f>(1/F12)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f>(1/C13)*1000</f>
+        <v>416.66666666666669</v>
+      </c>
       <c r="C13">
         <f t="shared" si="0"/>
         <v>2.4</v>
@@ -3409,8 +3623,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H13" t="e">
+        <f>(1/F13)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f>(1/C14)*1000</f>
+        <v>312.5</v>
+      </c>
       <c r="C14">
         <f t="shared" si="0"/>
         <v>3.2</v>
@@ -3423,8 +3645,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H14" t="e">
+        <f>(1/F14)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f>(1/C15)*1000</f>
+        <v>250</v>
+      </c>
       <c r="C15">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3437,8 +3667,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H15" t="e">
+        <f>(1/F15)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f>(1/C16)*1000</f>
+        <v>1666.6666666666667</v>
+      </c>
       <c r="C16">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -3451,8 +3689,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16" t="e">
+        <f>(1/F16)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <f>(1/C17)*1000</f>
+        <v>1000</v>
+      </c>
       <c r="C17">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -3465,8 +3711,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="e">
+        <f>(1/F17)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f>(1/C18)*1000</f>
+        <v>833.33333333333337</v>
+      </c>
       <c r="C18">
         <f t="shared" si="0"/>
         <v>1.2</v>
@@ -3475,7 +3729,11 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <f>(1/C19)*1000</f>
+        <v>714.28571428571422</v>
+      </c>
       <c r="C19">
         <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
@@ -3484,7 +3742,11 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f>(1/C20)*1000</f>
+        <v>625</v>
+      </c>
       <c r="C20">
         <f t="shared" si="0"/>
         <v>1.6</v>
@@ -3493,7 +3755,11 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f>(1/C21)*1000</f>
+        <v>555.55555555555554</v>
+      </c>
       <c r="C21">
         <f t="shared" si="0"/>
         <v>1.7999999999999998</v>
@@ -3502,7 +3768,11 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f>(1/C22)*1000</f>
+        <v>1666.6666666666667</v>
+      </c>
       <c r="C22">
         <f t="shared" si="0"/>
         <v>0.6</v>
@@ -3511,7 +3781,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <f>(1/C23)*1000</f>
+        <v>1388.8888888888889</v>
+      </c>
       <c r="C23">
         <f t="shared" si="0"/>
         <v>0.72</v>
@@ -3520,7 +3794,11 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f>(1/C24)*1000</f>
+        <v>1190.4761904761904</v>
+      </c>
       <c r="C24">
         <f t="shared" si="0"/>
         <v>0.84000000000000008</v>
@@ -3529,7 +3807,11 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f>(1/C25)*1000</f>
+        <v>1041.6666666666667</v>
+      </c>
       <c r="C25">
         <f t="shared" si="0"/>
         <v>0.96</v>
@@ -3538,7 +3820,11 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f>(1/C26)*1000</f>
+        <v>925.92592592592587</v>
+      </c>
       <c r="C26">
         <f t="shared" si="0"/>
         <v>1.08</v>
@@ -3547,50 +3833,84 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="e">
+        <f>(1/C27)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="C27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="e">
+        <f>(1/C28)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="C28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="e">
+        <f>(1/C29)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="C29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" t="e">
+        <f>(1/C30)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="C30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="e">
+        <f>(1/C31)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="C31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="e">
+        <f>(1/C32)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="C32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="e">
+        <f>(1/C33)*1000</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="C33">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="1048576" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H1048576" t="e">
+        <f>(1/F1048576)*1000</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -3602,8 +3922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3617,33 +3937,33 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G1" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
@@ -3657,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f>G3*10</f>
+        <f>G3*12</f>
         <v>0</v>
       </c>
       <c r="I3">
@@ -3677,15 +3997,15 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <f>G4*10</f>
-        <v>10</v>
+        <f t="shared" ref="H4:H28" si="0">G4*12</f>
+        <v>12</v>
       </c>
       <c r="I4">
         <v>100</v>
       </c>
       <c r="J4">
         <f>I4+H4</f>
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K4">
         <f>G4*60</f>
@@ -3697,15 +4017,15 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <f>G5*10</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="I5">
         <v>100</v>
       </c>
       <c r="J5">
         <f>I5+H5</f>
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K5">
         <f>G5*60</f>
@@ -3717,15 +4037,15 @@
         <v>3</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H28" si="0">G6*10</f>
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
       <c r="I6">
         <v>100</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J28" si="1">I6+H6</f>
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="K6">
         <f t="shared" ref="K6:K28" si="2">G6*60</f>
@@ -3738,14 +4058,14 @@
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="I7">
         <v>100</v>
       </c>
       <c r="J7">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
@@ -3758,14 +4078,14 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I8">
         <v>100</v>
       </c>
       <c r="J8">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="K8">
         <f t="shared" si="2"/>
@@ -3778,14 +4098,14 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="I9">
         <v>100</v>
       </c>
       <c r="J9">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="K9">
         <f t="shared" si="2"/>
@@ -3798,14 +4118,14 @@
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I10">
         <v>100</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
@@ -3818,14 +4138,14 @@
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I11">
         <v>100</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
@@ -3838,14 +4158,14 @@
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="I12">
         <v>100</v>
       </c>
       <c r="J12">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="K12">
         <f t="shared" si="2"/>
@@ -3858,14 +4178,14 @@
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I13">
         <v>100</v>
       </c>
       <c r="J13">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
@@ -3878,14 +4198,14 @@
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="I14">
         <v>100</v>
       </c>
       <c r="J14">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="K14">
         <f t="shared" si="2"/>
@@ -3898,14 +4218,14 @@
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="I15">
         <v>100</v>
       </c>
       <c r="J15">
         <f t="shared" si="1"/>
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="K15">
         <f t="shared" si="2"/>
@@ -3918,14 +4238,14 @@
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="I16">
         <v>100</v>
       </c>
       <c r="J16">
         <f t="shared" si="1"/>
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="K16">
         <f t="shared" si="2"/>
@@ -3938,14 +4258,14 @@
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="I17">
         <v>100</v>
       </c>
       <c r="J17">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="K17">
         <f t="shared" si="2"/>
@@ -3958,14 +4278,14 @@
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="I18">
         <v>100</v>
       </c>
       <c r="J18">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K18">
         <f t="shared" si="2"/>
@@ -3978,14 +4298,14 @@
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="I19">
         <v>100</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="K19">
         <f t="shared" si="2"/>
@@ -3998,14 +4318,14 @@
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="I20">
         <v>100</v>
       </c>
       <c r="J20">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="K20">
         <f t="shared" si="2"/>
@@ -4018,14 +4338,14 @@
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="I21">
         <v>100</v>
       </c>
       <c r="J21">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="K21">
         <f t="shared" si="2"/>
@@ -4038,14 +4358,14 @@
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="I22">
         <v>100</v>
       </c>
       <c r="J22">
         <f t="shared" si="1"/>
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="K22">
         <f t="shared" si="2"/>
@@ -4058,14 +4378,14 @@
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="I23">
         <v>100</v>
       </c>
       <c r="J23">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="K23">
         <f t="shared" si="2"/>
@@ -4078,14 +4398,14 @@
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="I24">
         <v>100</v>
       </c>
       <c r="J24">
         <f t="shared" si="1"/>
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="K24">
         <f t="shared" si="2"/>
@@ -4098,14 +4418,14 @@
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="I25">
         <v>100</v>
       </c>
       <c r="J25">
         <f t="shared" si="1"/>
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="K25">
         <f t="shared" si="2"/>
@@ -4118,14 +4438,14 @@
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="I26">
         <v>100</v>
       </c>
       <c r="J26">
         <f t="shared" si="1"/>
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="K26">
         <f t="shared" si="2"/>
@@ -4138,14 +4458,14 @@
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="I27">
         <v>100</v>
       </c>
       <c r="J27">
         <f t="shared" si="1"/>
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="K27">
         <f t="shared" si="2"/>
@@ -4158,14 +4478,14 @@
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="I28">
         <v>100</v>
       </c>
       <c r="J28">
         <f t="shared" si="1"/>
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="K28">
         <f t="shared" si="2"/>
@@ -4174,7 +4494,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
@@ -4182,13 +4502,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" t="s">
         <v>57</v>
-      </c>
-      <c r="E35" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
@@ -4196,14 +4516,14 @@
         <v>70</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <f>D36*10</f>
-        <v>10</v>
+        <f>D36*12</f>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
@@ -4211,8 +4531,8 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <f>D37*10</f>
-        <v>20</v>
+        <f t="shared" ref="E37:E65" si="3">D37*12</f>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
@@ -4220,8 +4540,8 @@
         <v>3</v>
       </c>
       <c r="E38">
-        <f>D38*10</f>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
@@ -4229,8 +4549,8 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <f>D39*10</f>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
@@ -4238,8 +4558,11 @@
         <v>5</v>
       </c>
       <c r="E40">
-        <f>D40*10</f>
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
@@ -4247,11 +4570,8 @@
         <v>6</v>
       </c>
       <c r="E41">
-        <f>D41*10</f>
-        <v>60</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
@@ -4259,8 +4579,8 @@
         <v>7</v>
       </c>
       <c r="E42">
-        <f>D42*10</f>
-        <v>70</v>
+        <f t="shared" si="3"/>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
@@ -4268,8 +4588,8 @@
         <v>8</v>
       </c>
       <c r="E43">
-        <f>D43*10</f>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
@@ -4277,8 +4597,8 @@
         <v>9</v>
       </c>
       <c r="E44">
-        <f>D44*10</f>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
@@ -4286,8 +4606,8 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <f>D45*10</f>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>120</v>
       </c>
       <c r="F45" s="12"/>
     </row>
@@ -4296,8 +4616,8 @@
         <v>11</v>
       </c>
       <c r="E46">
-        <f>D46*10</f>
-        <v>110</v>
+        <f t="shared" si="3"/>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
@@ -4305,8 +4625,8 @@
         <v>12</v>
       </c>
       <c r="E47">
-        <f>D47*10</f>
-        <v>120</v>
+        <f t="shared" si="3"/>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
@@ -4314,8 +4634,8 @@
         <v>13</v>
       </c>
       <c r="E48">
-        <f>D48*10</f>
-        <v>130</v>
+        <f t="shared" si="3"/>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.3">
@@ -4323,8 +4643,8 @@
         <v>14</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:E65" si="3">D49*10</f>
-        <v>140</v>
+        <f t="shared" si="3"/>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.3">
@@ -4333,7 +4653,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="3"/>
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.3">
@@ -4342,7 +4662,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.3">
@@ -4351,7 +4671,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="3"/>
-        <v>170</v>
+        <v>204</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.3">
@@ -4360,7 +4680,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="3"/>
-        <v>180</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.3">
@@ -4369,7 +4689,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="3"/>
-        <v>190</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.3">
@@ -4378,7 +4698,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.3">
@@ -4387,7 +4707,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="3"/>
-        <v>210</v>
+        <v>252</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.3">
@@ -4396,7 +4716,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="3"/>
-        <v>220</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.3">
@@ -4405,7 +4725,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="3"/>
-        <v>230</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.3">
@@ -4414,7 +4734,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="3"/>
-        <v>240</v>
+        <v>288</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.3">
@@ -4423,7 +4743,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="3"/>
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.3">
@@ -4432,7 +4752,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="3"/>
-        <v>260</v>
+        <v>312</v>
       </c>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.3">
@@ -4441,7 +4761,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="3"/>
-        <v>270</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.3">
@@ -4450,7 +4770,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="3"/>
-        <v>280</v>
+        <v>336</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.3">
@@ -4459,7 +4779,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="3"/>
-        <v>290</v>
+        <v>348</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.3">
@@ -4468,7 +4788,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/Tower-Data.xlsx
+++ b/Tower-Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
   </bookViews>
   <sheets>
     <sheet name="Tower-Data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="66">
   <si>
     <t>Kosten</t>
   </si>
@@ -213,6 +213,18 @@
   </si>
   <si>
     <t>Milisekunden bis zum nächsten Shot</t>
+  </si>
+  <si>
+    <t>Chaser</t>
+  </si>
+  <si>
+    <t>Basher</t>
+  </si>
+  <si>
+    <t>Sploder</t>
+  </si>
+  <si>
+    <t>Distorter</t>
   </si>
 </sst>
 </file>
@@ -670,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD59"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,7 +813,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="2">
         <v>64</v>
@@ -811,7 +823,7 @@
       </c>
       <c r="I3" s="2"/>
       <c r="K3">
-        <f>E3*(F3*40)</f>
+        <f>E3*(1000/F3)</f>
         <v>5</v>
       </c>
       <c r="L3">
@@ -820,7 +832,7 @@
       </c>
       <c r="N3">
         <f>AA3/K3</f>
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="O3">
         <f>AA4/K3</f>
@@ -862,7 +874,7 @@
         <v>32</v>
       </c>
       <c r="AA3" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB3" s="10">
         <v>0.8</v>
@@ -885,10 +897,10 @@
         <v>350</v>
       </c>
       <c r="E4" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>823</v>
       </c>
       <c r="G4" s="2">
         <v>72</v>
@@ -898,52 +910,52 @@
       </c>
       <c r="I4" s="2"/>
       <c r="K4">
-        <f>E4*(F4*40)</f>
-        <v>8.4</v>
+        <f>E4*(1000/F4)</f>
+        <v>8.5054678007290399</v>
       </c>
       <c r="L4">
         <f>K4/D4</f>
-        <v>2.4E-2</v>
+        <v>2.4301336573511544E-2</v>
       </c>
       <c r="N4">
         <f>AA3/K4</f>
-        <v>1.7857142857142856</v>
+        <v>1.6460000000000001</v>
       </c>
       <c r="O4">
         <f>AA4/K4</f>
-        <v>4.7619047619047619</v>
+        <v>4.7028571428571428</v>
       </c>
       <c r="P4">
         <f>AA5/(K4/3)</f>
-        <v>35.714285714285708</v>
+        <v>35.271428571428572</v>
       </c>
       <c r="Q4">
         <f>AA6/K4</f>
-        <v>2.3809523809523809</v>
+        <v>2.3514285714285714</v>
       </c>
       <c r="R4">
         <f>AA7/(K4/3)</f>
-        <v>17.857142857142854</v>
+        <v>17.635714285714286</v>
       </c>
       <c r="S4">
         <f>AA8/(K4/3)</f>
-        <v>64.285714285714278</v>
+        <v>63.488571428571426</v>
       </c>
       <c r="T4">
         <f>AA9/K4</f>
-        <v>2.3809523809523809</v>
+        <v>2.3514285714285714</v>
       </c>
       <c r="U4">
         <f>AA10/K4</f>
-        <v>2.9761904761904763</v>
+        <v>2.9392857142857145</v>
       </c>
       <c r="V4">
         <f>AA11/(K4/3)</f>
-        <v>89.285714285714278</v>
+        <v>88.178571428571431</v>
       </c>
       <c r="W4">
         <f>AA12/K4</f>
-        <v>4.1666666666666661</v>
+        <v>4.1150000000000002</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>47</v>
@@ -972,10 +984,10 @@
         <v>600</v>
       </c>
       <c r="E5" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>690</v>
       </c>
       <c r="G5" s="2">
         <v>80</v>
@@ -985,52 +997,52 @@
       </c>
       <c r="I5" s="2"/>
       <c r="K5">
-        <f>E5*(F5*40)</f>
-        <v>12.599999999999998</v>
+        <f>E5*(1000/F5)</f>
+        <v>13.043478260869565</v>
       </c>
       <c r="L5">
         <f>K5/D5</f>
-        <v>2.0999999999999998E-2</v>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="N5">
         <f>AA3/K5</f>
-        <v>1.1904761904761907</v>
+        <v>1.0733333333333335</v>
       </c>
       <c r="O5">
         <f>AA4/K5</f>
-        <v>3.1746031746031753</v>
+        <v>3.0666666666666669</v>
       </c>
       <c r="P5">
         <f>AA5/(K5/3)</f>
-        <v>23.809523809523814</v>
+        <v>23</v>
       </c>
       <c r="Q5">
         <f>AA6/K5</f>
-        <v>1.5873015873015877</v>
+        <v>1.5333333333333334</v>
       </c>
       <c r="R5">
         <f>AA7/(K5/3)</f>
-        <v>11.904761904761907</v>
+        <v>11.5</v>
       </c>
       <c r="S5">
         <f>AA8/(K5/3)</f>
-        <v>42.857142857142861</v>
+        <v>41.400000000000006</v>
       </c>
       <c r="T5">
         <f>AA9/K5</f>
-        <v>1.5873015873015877</v>
+        <v>1.5333333333333334</v>
       </c>
       <c r="U5">
         <f>AA10/K5</f>
-        <v>1.9841269841269844</v>
+        <v>1.9166666666666667</v>
       </c>
       <c r="V5">
         <f>AA11/(K5/3)</f>
-        <v>59.523809523809533</v>
+        <v>57.5</v>
       </c>
       <c r="W5">
         <f>AA12/K5</f>
-        <v>2.7777777777777781</v>
+        <v>2.6833333333333336</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>33</v>
@@ -1061,10 +1073,10 @@
         <v>900</v>
       </c>
       <c r="E6" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2">
-        <v>5.5E-2</v>
+        <v>582</v>
       </c>
       <c r="G6" s="2">
         <v>88</v>
@@ -1074,52 +1086,52 @@
       </c>
       <c r="I6" s="2"/>
       <c r="K6">
-        <f>E6*(F6*40)</f>
-        <v>17.600000000000001</v>
+        <f>E6*(1000/F6)</f>
+        <v>18.900343642611684</v>
       </c>
       <c r="L6">
         <f>K6/D6</f>
-        <v>1.9555555555555559E-2</v>
+        <v>2.1000381825124093E-2</v>
       </c>
       <c r="N6">
         <f>AA3/K6</f>
-        <v>0.85227272727272718</v>
+        <v>0.74072727272727268</v>
       </c>
       <c r="O6">
         <f>AA4/K6</f>
-        <v>2.2727272727272725</v>
+        <v>2.1163636363636362</v>
       </c>
       <c r="P6">
         <f>AA5/(K6/3)</f>
-        <v>17.045454545454543</v>
+        <v>15.872727272727273</v>
       </c>
       <c r="Q6">
         <f>AA6/K6</f>
-        <v>1.1363636363636362</v>
+        <v>1.0581818181818181</v>
       </c>
       <c r="R6">
         <f>AA7/(K6/3)</f>
-        <v>8.5227272727272716</v>
+        <v>7.9363636363636365</v>
       </c>
       <c r="S6">
         <f>AA8/(K6/3)</f>
-        <v>30.68181818181818</v>
+        <v>28.57090909090909</v>
       </c>
       <c r="T6">
         <f>AA9/K6</f>
-        <v>1.1363636363636362</v>
+        <v>1.0581818181818181</v>
       </c>
       <c r="U6">
         <f>AA10/K6</f>
-        <v>1.4204545454545454</v>
+        <v>1.3227272727272728</v>
       </c>
       <c r="V6">
         <f>AA11/(K6/3)</f>
-        <v>42.61363636363636</v>
+        <v>39.68181818181818</v>
       </c>
       <c r="W6">
         <f>AA12/K6</f>
-        <v>1.9886363636363635</v>
+        <v>1.8518181818181818</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>34</v>
@@ -1150,10 +1162,10 @@
         <v>1250</v>
       </c>
       <c r="E7" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" s="2">
-        <v>6.5000000000000002E-2</v>
+        <v>500</v>
       </c>
       <c r="G7" s="2">
         <v>96</v>
@@ -1163,7 +1175,7 @@
       </c>
       <c r="I7" s="2"/>
       <c r="K7">
-        <f>E7*(F7*40)</f>
+        <f>E7*(1000/F7)</f>
         <v>26</v>
       </c>
       <c r="L7">
@@ -1172,7 +1184,7 @@
       </c>
       <c r="N7">
         <f>AA3/K7</f>
-        <v>0.57692307692307687</v>
+        <v>0.53846153846153844</v>
       </c>
       <c r="O7">
         <f>AA4/K7</f>
@@ -1388,10 +1400,10 @@
         <v>200</v>
       </c>
       <c r="E16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1800</v>
       </c>
       <c r="G16" s="2">
         <v>72</v>
@@ -1401,58 +1413,58 @@
       </c>
       <c r="I16" s="2"/>
       <c r="K16">
-        <f>E16*(F16*40)</f>
-        <v>9</v>
+        <f>E16*(1000/F16)</f>
+        <v>7.7777777777777786</v>
       </c>
       <c r="L16">
         <f>K16/D16</f>
-        <v>4.4999999999999998E-2</v>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="N16">
         <f>AA16/(K16)</f>
-        <v>1.6666666666666667</v>
+        <v>1.7999999999999998</v>
       </c>
       <c r="O16">
         <f>AA17/K16</f>
-        <v>4.4444444444444446</v>
+        <v>5.1428571428571423</v>
       </c>
       <c r="P16">
         <f>AA18/K16</f>
-        <v>11.111111111111111</v>
+        <v>12.857142857142856</v>
       </c>
       <c r="Q16">
         <f>AA19/(K16/3)</f>
-        <v>6.666666666666667</v>
+        <v>7.7142857142857126</v>
       </c>
       <c r="R16">
         <f>AA20/K16</f>
-        <v>5.5555555555555554</v>
+        <v>6.4285714285714279</v>
       </c>
       <c r="S16">
         <f>AA21/K16</f>
-        <v>20</v>
+        <v>23.142857142857139</v>
       </c>
       <c r="T16">
         <f>AA22/K16</f>
-        <v>2.2222222222222223</v>
+        <v>2.5714285714285712</v>
       </c>
       <c r="U16">
         <f>AA23/K16</f>
-        <v>2.7777777777777777</v>
+        <v>3.214285714285714</v>
       </c>
       <c r="V16">
         <f>AA24/K16</f>
-        <v>27.777777777777779</v>
+        <v>32.142857142857139</v>
       </c>
       <c r="W16">
         <f>AA25/(K16/3)</f>
-        <v>11.666666666666666</v>
+        <v>13.499999999999998</v>
       </c>
       <c r="Z16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="AA16" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB16" s="10">
         <v>0.8</v>
@@ -1475,10 +1487,10 @@
         <v>450</v>
       </c>
       <c r="E17" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1750</v>
       </c>
       <c r="G17" s="2">
         <v>81</v>
@@ -1488,52 +1500,52 @@
       </c>
       <c r="I17" s="2"/>
       <c r="K17">
-        <f>E17*(F17*40)</f>
-        <v>14.399999999999999</v>
+        <f>E17*(1000/F17)</f>
+        <v>13.142857142857142</v>
       </c>
       <c r="L17">
         <f>K17/D17</f>
-        <v>3.1999999999999994E-2</v>
+        <v>2.9206349206349205E-2</v>
       </c>
       <c r="N17">
         <f>AA16/K17</f>
-        <v>1.0416666666666667</v>
+        <v>1.0652173913043479</v>
       </c>
       <c r="O17">
         <f>AA17/K17</f>
-        <v>2.7777777777777781</v>
+        <v>3.0434782608695654</v>
       </c>
       <c r="P17">
         <f>AA18/K17</f>
-        <v>6.9444444444444455</v>
+        <v>7.6086956521739131</v>
       </c>
       <c r="Q17">
         <f>AA19/(K17/3)</f>
-        <v>4.166666666666667</v>
+        <v>4.5652173913043486</v>
       </c>
       <c r="R17">
         <f>AA20/K17</f>
-        <v>3.4722222222222228</v>
+        <v>3.8043478260869565</v>
       </c>
       <c r="S17">
         <f>AA21/K17</f>
-        <v>12.500000000000002</v>
+        <v>13.695652173913045</v>
       </c>
       <c r="T17">
         <f>AA22/K17</f>
-        <v>1.3888888888888891</v>
+        <v>1.5217391304347827</v>
       </c>
       <c r="U17">
         <f>AA23/K17</f>
-        <v>1.7361111111111114</v>
+        <v>1.9021739130434783</v>
       </c>
       <c r="V17">
         <f>AA24/K17</f>
-        <v>17.361111111111114</v>
+        <v>19.021739130434785</v>
       </c>
       <c r="W17">
         <f>AA25/(K17/3)</f>
-        <v>7.291666666666667</v>
+        <v>7.9891304347826093</v>
       </c>
       <c r="Z17" s="2" t="s">
         <v>47</v>
@@ -1562,10 +1574,10 @@
         <v>750</v>
       </c>
       <c r="E18" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1700</v>
       </c>
       <c r="G18" s="2">
         <v>90</v>
@@ -1575,52 +1587,52 @@
       </c>
       <c r="I18" s="2"/>
       <c r="K18">
-        <f>E18*(F18*40)</f>
-        <v>19.8</v>
+        <f>E18*(1000/F18)</f>
+        <v>18.823529411764707</v>
       </c>
       <c r="L18">
         <f>K18/D18</f>
-        <v>2.64E-2</v>
+        <v>2.5098039215686277E-2</v>
       </c>
       <c r="N18">
         <f>AA16/K18</f>
-        <v>0.75757575757575757</v>
+        <v>0.74375000000000002</v>
       </c>
       <c r="O18">
         <f>AA17/K18</f>
-        <v>2.0202020202020203</v>
+        <v>2.125</v>
       </c>
       <c r="P18">
         <f>AA18/K18</f>
-        <v>5.0505050505050502</v>
+        <v>5.3125</v>
       </c>
       <c r="Q18">
         <f>AA19/(K18/3)</f>
-        <v>3.0303030303030303</v>
+        <v>3.1875</v>
       </c>
       <c r="R18">
         <f>AA20/K18</f>
-        <v>2.5252525252525251</v>
+        <v>2.65625</v>
       </c>
       <c r="S18">
         <f>AA21/K18</f>
-        <v>9.0909090909090899</v>
+        <v>9.5625</v>
       </c>
       <c r="T18">
         <f>AA22/K18</f>
-        <v>1.0101010101010102</v>
+        <v>1.0625</v>
       </c>
       <c r="U18">
         <f>AA23/K18</f>
-        <v>1.2626262626262625</v>
+        <v>1.328125</v>
       </c>
       <c r="V18">
         <f>AA24/K18</f>
-        <v>12.626262626262626</v>
+        <v>13.28125</v>
       </c>
       <c r="W18">
         <f>AA25/(K18/3)</f>
-        <v>5.3030303030303028</v>
+        <v>5.578125</v>
       </c>
       <c r="Z18" s="2" t="s">
         <v>33</v>
@@ -1651,10 +1663,10 @@
         <v>1100</v>
       </c>
       <c r="E19" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1650</v>
       </c>
       <c r="G19" s="2">
         <v>99</v>
@@ -1664,52 +1676,52 @@
       </c>
       <c r="I19" s="2"/>
       <c r="K19">
-        <f>E19*(F19*40)</f>
-        <v>25.2</v>
+        <f>E19*(1000/F19)</f>
+        <v>24.848484848484848</v>
       </c>
       <c r="L19">
         <f>K19/D19</f>
-        <v>2.2909090909090907E-2</v>
+        <v>2.2589531680440769E-2</v>
       </c>
       <c r="N19">
         <f>AA16/K19</f>
-        <v>0.59523809523809523</v>
+        <v>0.56341463414634152</v>
       </c>
       <c r="O19">
         <f>AA17/K19</f>
-        <v>1.5873015873015874</v>
+        <v>1.6097560975609757</v>
       </c>
       <c r="P19">
         <f>AA18/K19</f>
-        <v>3.9682539682539684</v>
+        <v>4.024390243902439</v>
       </c>
       <c r="Q19">
         <f>AA19/(K19/3)</f>
-        <v>2.3809523809523809</v>
+        <v>2.4146341463414638</v>
       </c>
       <c r="R19">
         <f>AA20/K19</f>
-        <v>1.9841269841269842</v>
+        <v>2.0121951219512195</v>
       </c>
       <c r="S19">
         <f>AA21/K19</f>
-        <v>7.1428571428571432</v>
+        <v>7.2439024390243905</v>
       </c>
       <c r="T19">
         <f>AA22/K19</f>
-        <v>0.79365079365079372</v>
+        <v>0.80487804878048785</v>
       </c>
       <c r="U19">
         <f>AA23/K19</f>
-        <v>0.99206349206349209</v>
+        <v>1.0060975609756098</v>
       </c>
       <c r="V19">
         <f>AA24/K19</f>
-        <v>9.9206349206349209</v>
+        <v>10.060975609756097</v>
       </c>
       <c r="W19">
         <f>AA25/(K19/3)</f>
-        <v>4.1666666666666661</v>
+        <v>4.2256097560975618</v>
       </c>
       <c r="Z19" s="2" t="s">
         <v>34</v>
@@ -1743,7 +1755,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1600</v>
       </c>
       <c r="G20" s="2">
         <v>108</v>
@@ -1753,52 +1765,52 @@
       </c>
       <c r="I20" s="2"/>
       <c r="K20">
-        <f>E20*(F20*40)</f>
-        <v>30</v>
+        <f>E20*(1000/F20)</f>
+        <v>31.25</v>
       </c>
       <c r="L20">
         <f>K20/D20</f>
-        <v>0.02</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="N20">
         <f>AA16/K20</f>
-        <v>0.5</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="O20">
         <f>AA17/K20</f>
-        <v>1.3333333333333333</v>
+        <v>1.28</v>
       </c>
       <c r="P20">
         <f>AA18/K20</f>
-        <v>3.3333333333333335</v>
+        <v>3.2</v>
       </c>
       <c r="Q20">
         <f>AA19/(K20/3)</f>
-        <v>2</v>
+        <v>1.9200000000000002</v>
       </c>
       <c r="R20">
         <f>AA20/K20</f>
-        <v>1.6666666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="S20">
         <f>AA21/K20</f>
-        <v>6</v>
+        <v>5.76</v>
       </c>
       <c r="T20">
         <f>AA22/K20</f>
-        <v>0.66666666666666663</v>
+        <v>0.64</v>
       </c>
       <c r="U20">
         <f>AA23/K20</f>
-        <v>0.83333333333333337</v>
+        <v>0.8</v>
       </c>
       <c r="V20">
         <f>AA24/K20</f>
-        <v>8.3333333333333339</v>
+        <v>8</v>
       </c>
       <c r="W20">
         <f>AA25/(K20/3)</f>
-        <v>3.5</v>
+        <v>3.3600000000000003</v>
       </c>
       <c r="Z20" s="2" t="s">
         <v>35</v>
@@ -1893,7 +1905,7 @@
       <c r="Z25" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AA25" s="13">
+      <c r="AA25" s="2">
         <v>35</v>
       </c>
       <c r="AB25" s="13">
@@ -1968,7 +1980,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1666</v>
       </c>
       <c r="G31" s="2">
         <v>64</v>
@@ -1980,58 +1992,58 @@
         <v>26</v>
       </c>
       <c r="K31">
-        <f>E31*(F31*40)</f>
-        <v>4.8</v>
+        <f>E31*(1000/F31)</f>
+        <v>4.8019207683073226</v>
       </c>
       <c r="L31">
         <f>K31/D31</f>
-        <v>2.4E-2</v>
+        <v>2.4009603841536612E-2</v>
       </c>
       <c r="N31">
         <f>AA31/(K31)</f>
-        <v>3.125</v>
+        <v>2.9155000000000002</v>
       </c>
       <c r="O31">
         <f>AA32/K31</f>
-        <v>8.3333333333333339</v>
+        <v>8.33</v>
       </c>
       <c r="P31">
         <f>AA33/K31</f>
-        <v>20.833333333333336</v>
+        <v>20.825000000000003</v>
       </c>
       <c r="Q31">
         <f>AA34/(K31/3)</f>
-        <v>12.500000000000002</v>
+        <v>12.495000000000001</v>
       </c>
       <c r="R31">
         <f>AA35/K31</f>
-        <v>10.416666666666668</v>
+        <v>10.412500000000001</v>
       </c>
       <c r="S31">
         <f>AA36/K31</f>
-        <v>37.5</v>
+        <v>37.484999999999999</v>
       </c>
       <c r="T31">
         <f>AA37/(K31/3)</f>
-        <v>12.500000000000002</v>
+        <v>12.495000000000001</v>
       </c>
       <c r="U31">
         <f>AA38/(K31/3)</f>
-        <v>15.625000000000002</v>
+        <v>15.61875</v>
       </c>
       <c r="V31">
         <f>AA39/K31</f>
-        <v>52.083333333333336</v>
+        <v>52.0625</v>
       </c>
       <c r="W31">
         <f>AA40/(K31/3)</f>
-        <v>21.875000000000004</v>
+        <v>21.866250000000001</v>
       </c>
       <c r="Z31" s="10" t="s">
         <v>32</v>
       </c>
       <c r="AA31" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB31" s="10">
         <v>0.8</v>
@@ -2057,7 +2069,7 @@
         <v>10</v>
       </c>
       <c r="F32" s="2">
-        <v>1.7999999999999999E-2</v>
+        <v>1388</v>
       </c>
       <c r="G32" s="2">
         <v>72</v>
@@ -2069,52 +2081,52 @@
         <v>26</v>
       </c>
       <c r="K32">
-        <f>E32*(F32*40)</f>
-        <v>7.1999999999999993</v>
+        <f>E32*(1000/F32)</f>
+        <v>7.2046109510086449</v>
       </c>
       <c r="L32">
         <f>K32/D32</f>
-        <v>1.5999999999999997E-2</v>
+        <v>1.6010246557796988E-2</v>
       </c>
       <c r="N32">
         <f>AA31/K32</f>
-        <v>2.0833333333333335</v>
+        <v>1.9432000000000003</v>
       </c>
       <c r="O32">
         <f>AA32/K32</f>
-        <v>5.5555555555555562</v>
+        <v>5.5520000000000005</v>
       </c>
       <c r="P32">
         <f>AA33/K32</f>
-        <v>13.888888888888891</v>
+        <v>13.88</v>
       </c>
       <c r="Q32">
         <f>AA34/(K32/3)</f>
-        <v>8.3333333333333339</v>
+        <v>8.3280000000000012</v>
       </c>
       <c r="R32">
         <f>AA35/K32</f>
-        <v>6.9444444444444455</v>
+        <v>6.94</v>
       </c>
       <c r="S32">
         <f>AA36/K32</f>
-        <v>25.000000000000004</v>
+        <v>24.984000000000002</v>
       </c>
       <c r="T32">
         <f>AA37/(K32/3)</f>
-        <v>8.3333333333333339</v>
+        <v>8.3280000000000012</v>
       </c>
       <c r="U32">
         <f>AA38/(K32/3)</f>
-        <v>10.416666666666668</v>
+        <v>10.410000000000002</v>
       </c>
       <c r="V32">
         <f>AA39/K32</f>
-        <v>34.722222222222229</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="W32">
         <f>AA40/(K32/3)</f>
-        <v>14.583333333333334</v>
+        <v>14.574000000000002</v>
       </c>
       <c r="Z32" s="2" t="s">
         <v>47</v>
@@ -2146,7 +2158,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="2">
-        <v>2.1000000000000001E-2</v>
+        <v>1190</v>
       </c>
       <c r="G33" s="2">
         <v>80</v>
@@ -2158,52 +2170,52 @@
         <v>26</v>
       </c>
       <c r="K33">
-        <f>E33*(F33*40)</f>
-        <v>10.080000000000002</v>
+        <f>E33*(1000/F33)</f>
+        <v>10.084033613445378</v>
       </c>
       <c r="L33">
         <f>K33/D33</f>
-        <v>1.3440000000000002E-2</v>
+        <v>1.3445378151260503E-2</v>
       </c>
       <c r="N33">
         <f>AA31/K33</f>
-        <v>1.4880952380952379</v>
+        <v>1.3883333333333334</v>
       </c>
       <c r="O33">
         <f>AA32/K33</f>
-        <v>3.9682539682539675</v>
+        <v>3.9666666666666668</v>
       </c>
       <c r="P33">
         <f>AA33/K33</f>
-        <v>9.9206349206349191</v>
+        <v>9.9166666666666661</v>
       </c>
       <c r="Q33">
         <f>AA34/(K33/3)</f>
-        <v>5.9523809523809508</v>
+        <v>5.95</v>
       </c>
       <c r="R33">
         <f>AA35/K33</f>
-        <v>4.9603174603174596</v>
+        <v>4.958333333333333</v>
       </c>
       <c r="S33">
         <f>AA36/K33</f>
-        <v>17.857142857142854</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="T33">
         <f>AA37/(K33/3)</f>
-        <v>5.9523809523809508</v>
+        <v>5.95</v>
       </c>
       <c r="U33">
         <f>AA38/(K33/3)</f>
-        <v>7.4404761904761889</v>
+        <v>7.4375</v>
       </c>
       <c r="V33">
         <f>AA39/K33</f>
-        <v>24.801587301587297</v>
+        <v>24.791666666666668</v>
       </c>
       <c r="W33">
         <f>AA40/(K33/3)</f>
-        <v>10.416666666666664</v>
+        <v>10.4125</v>
       </c>
       <c r="Z33" s="2" t="s">
         <v>33</v>
@@ -2237,7 +2249,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="2">
-        <v>2.4E-2</v>
+        <v>1041</v>
       </c>
       <c r="G34" s="2">
         <v>88</v>
@@ -2249,52 +2261,52 @@
         <v>26</v>
       </c>
       <c r="K34">
-        <f>E34*(F34*40)</f>
-        <v>13.44</v>
+        <f>E34*(1000/F34)</f>
+        <v>13.448607108549472</v>
       </c>
       <c r="L34">
         <f>K34/D34</f>
-        <v>1.2218181818181817E-2</v>
+        <v>1.2226006462317703E-2</v>
       </c>
       <c r="N34">
         <f>AA31/K34</f>
-        <v>1.1160714285714286</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="O34">
         <f>AA32/K34</f>
-        <v>2.9761904761904763</v>
+        <v>2.9742857142857142</v>
       </c>
       <c r="P34">
         <f>AA33/K34</f>
-        <v>7.4404761904761907</v>
+        <v>7.4357142857142851</v>
       </c>
       <c r="Q34">
         <f>AA34/(K34/3)</f>
-        <v>4.4642857142857144</v>
+        <v>4.4614285714285709</v>
       </c>
       <c r="R34">
         <f>AA35/K34</f>
-        <v>3.7202380952380953</v>
+        <v>3.7178571428571425</v>
       </c>
       <c r="S34">
         <f>AA36/K34</f>
-        <v>13.392857142857144</v>
+        <v>13.384285714285713</v>
       </c>
       <c r="T34">
         <f>AA37/(K34/3)</f>
-        <v>4.4642857142857144</v>
+        <v>4.4614285714285709</v>
       </c>
       <c r="U34">
         <f>AA38/(K34/3)</f>
-        <v>5.5803571428571432</v>
+        <v>5.5767857142857133</v>
       </c>
       <c r="V34">
         <f>AA39/K34</f>
-        <v>18.601190476190478</v>
+        <v>18.589285714285712</v>
       </c>
       <c r="W34">
         <f>AA40/(K34/3)</f>
-        <v>7.8125000000000009</v>
+        <v>7.8074999999999992</v>
       </c>
       <c r="Z34" s="2" t="s">
         <v>34</v>
@@ -2328,7 +2340,7 @@
         <v>16</v>
       </c>
       <c r="F35" s="2">
-        <v>2.7E-2</v>
+        <v>925</v>
       </c>
       <c r="G35" s="2">
         <v>96</v>
@@ -2340,52 +2352,52 @@
         <v>26</v>
       </c>
       <c r="K35">
-        <f>E35*(F35*40)</f>
-        <v>17.28</v>
+        <f>E35*(1000/F35)</f>
+        <v>17.297297297297298</v>
       </c>
       <c r="L35">
         <f>K35/D35</f>
-        <v>1.1520000000000001E-2</v>
+        <v>1.1531531531531532E-2</v>
       </c>
       <c r="N35">
         <f>AA31/K35</f>
-        <v>0.86805555555555547</v>
+        <v>0.80937499999999996</v>
       </c>
       <c r="O35">
         <f>AA32/K35</f>
-        <v>2.3148148148148149</v>
+        <v>2.3125</v>
       </c>
       <c r="P35">
         <f>AA33/K35</f>
-        <v>5.7870370370370363</v>
+        <v>5.78125</v>
       </c>
       <c r="Q35">
         <f>AA34/(K35/3)</f>
-        <v>3.4722222222222219</v>
+        <v>3.4687499999999996</v>
       </c>
       <c r="R35">
         <f>AA35/K35</f>
-        <v>2.8935185185185182</v>
+        <v>2.890625</v>
       </c>
       <c r="S35">
         <f>AA36/K35</f>
-        <v>10.416666666666666</v>
+        <v>10.40625</v>
       </c>
       <c r="T35">
         <f>AA37/(K35/3)</f>
-        <v>3.4722222222222219</v>
+        <v>3.4687499999999996</v>
       </c>
       <c r="U35">
         <f>AA38/(K35/3)</f>
-        <v>4.3402777777777777</v>
+        <v>4.3359374999999991</v>
       </c>
       <c r="V35">
         <f>AA39/K35</f>
-        <v>14.467592592592592</v>
+        <v>14.453125</v>
       </c>
       <c r="W35">
         <f>AA40/(K35/3)</f>
-        <v>6.0763888888888884</v>
+        <v>6.0703124999999991</v>
       </c>
       <c r="Z35" s="2" t="s">
         <v>35</v>
@@ -2475,7 +2487,7 @@
       <c r="Z40" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AA40" s="13">
+      <c r="AA40" s="2">
         <v>35</v>
       </c>
       <c r="AB40" s="13">
@@ -2541,7 +2553,7 @@
         <v>2</v>
       </c>
       <c r="F50" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>1000</v>
       </c>
       <c r="G50" s="2">
         <v>68</v>
@@ -2553,7 +2565,7 @@
         <v>30</v>
       </c>
       <c r="K50">
-        <f>E50*(F50*40)</f>
+        <f>E50*(1000/F50)</f>
         <v>2</v>
       </c>
       <c r="L50">
@@ -2562,7 +2574,7 @@
       </c>
       <c r="N50">
         <f>AA50/(K50)</f>
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O50">
         <f>AA51/K50</f>
@@ -2604,7 +2616,7 @@
         <v>32</v>
       </c>
       <c r="AA50" s="10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB50" s="10">
         <v>0.8</v>
@@ -2630,7 +2642,7 @@
         <v>3</v>
       </c>
       <c r="F51" s="2">
-        <v>0.03</v>
+        <v>833</v>
       </c>
       <c r="G51" s="2">
         <v>76</v>
@@ -2642,52 +2654,52 @@
         <v>30</v>
       </c>
       <c r="K51">
-        <f>E51*(F51*40)</f>
-        <v>3.5999999999999996</v>
+        <f>E51*(1000/F51)</f>
+        <v>3.601440576230492</v>
       </c>
       <c r="L51">
         <f>K51/D51</f>
-        <v>9.2307692307692299E-3</v>
+        <v>9.2344630159756202E-3</v>
       </c>
       <c r="N51">
         <f>AA50/K51</f>
-        <v>4.166666666666667</v>
+        <v>3.8873333333333338</v>
       </c>
       <c r="O51">
         <f>AA51/K51</f>
-        <v>11.111111111111112</v>
+        <v>11.106666666666667</v>
       </c>
       <c r="P51">
         <f>AA52/K51</f>
-        <v>27.777777777777782</v>
+        <v>27.766666666666669</v>
       </c>
       <c r="Q51">
         <f>AA53/(K51/3)</f>
-        <v>16.666666666666668</v>
+        <v>16.66</v>
       </c>
       <c r="R51">
         <f>AA54/K51</f>
-        <v>13.888888888888891</v>
+        <v>13.883333333333335</v>
       </c>
       <c r="S51">
         <f>AA55/K51</f>
-        <v>50.000000000000007</v>
+        <v>49.980000000000004</v>
       </c>
       <c r="T51">
         <f>AA56/(K51/3)</f>
-        <v>16.666666666666668</v>
+        <v>16.66</v>
       </c>
       <c r="U51">
         <f>AA57/(K51/3)</f>
-        <v>20.833333333333336</v>
+        <v>20.825000000000003</v>
       </c>
       <c r="V51">
         <f>AA58/K51</f>
-        <v>69.444444444444457</v>
+        <v>69.416666666666671</v>
       </c>
       <c r="W51">
         <f>AA59/(K51/3)</f>
-        <v>29.166666666666668</v>
+        <v>29.155000000000001</v>
       </c>
       <c r="Z51" s="2" t="s">
         <v>47</v>
@@ -2719,7 +2731,7 @@
         <v>4</v>
       </c>
       <c r="F52" s="2">
-        <v>3.5000000000000003E-2</v>
+        <v>714</v>
       </c>
       <c r="G52" s="2">
         <v>84</v>
@@ -2731,52 +2743,52 @@
         <v>30</v>
       </c>
       <c r="K52">
-        <f>E52*(F52*40)</f>
-        <v>5.6000000000000005</v>
+        <f>E52*(1000/F52)</f>
+        <v>5.6022408963585431</v>
       </c>
       <c r="L52">
         <f>K52/D52</f>
-        <v>8.4848484848484857E-3</v>
+        <v>8.4882437823614286E-3</v>
       </c>
       <c r="N52">
         <f>AA50/K52</f>
-        <v>2.6785714285714284</v>
+        <v>2.4990000000000001</v>
       </c>
       <c r="O52">
         <f>AA51/K52</f>
-        <v>7.1428571428571423</v>
+        <v>7.1400000000000006</v>
       </c>
       <c r="P52">
         <f>AA52/K52</f>
-        <v>17.857142857142854</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="Q52">
         <f>AA53/(K52/3)</f>
-        <v>10.714285714285714</v>
+        <v>10.71</v>
       </c>
       <c r="R52">
         <f>AA54/K52</f>
-        <v>8.928571428571427</v>
+        <v>8.9250000000000007</v>
       </c>
       <c r="S52">
         <f>AA55/K52</f>
-        <v>32.142857142857139</v>
+        <v>32.130000000000003</v>
       </c>
       <c r="T52">
         <f>AA56/(K52/3)</f>
-        <v>10.714285714285714</v>
+        <v>10.71</v>
       </c>
       <c r="U52">
         <f>AA57/(K52/3)</f>
-        <v>13.392857142857141</v>
+        <v>13.387500000000001</v>
       </c>
       <c r="V52">
         <f>AA58/K52</f>
-        <v>44.642857142857139</v>
+        <v>44.625</v>
       </c>
       <c r="W52">
         <f>AA59/(K52/3)</f>
-        <v>18.749999999999996</v>
+        <v>18.742500000000003</v>
       </c>
       <c r="Z52" s="2" t="s">
         <v>33</v>
@@ -2810,7 +2822,7 @@
         <v>5</v>
       </c>
       <c r="F53" s="2">
-        <v>0.04</v>
+        <v>625</v>
       </c>
       <c r="G53" s="2">
         <v>92</v>
@@ -2822,7 +2834,7 @@
         <v>30</v>
       </c>
       <c r="K53">
-        <f>E53*(F53*40)</f>
+        <f>E53*(1000/F53)</f>
         <v>8</v>
       </c>
       <c r="L53">
@@ -2831,7 +2843,7 @@
       </c>
       <c r="N53">
         <f>AA50/K53</f>
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="O53">
         <f>AA51/K53</f>
@@ -2901,7 +2913,7 @@
         <v>6</v>
       </c>
       <c r="F54" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>555</v>
       </c>
       <c r="G54" s="2">
         <v>100</v>
@@ -2913,52 +2925,52 @@
         <v>30</v>
       </c>
       <c r="K54">
-        <f>E54*(F54*40)</f>
-        <v>10.799999999999999</v>
+        <f>E54*(1000/F54)</f>
+        <v>10.810810810810811</v>
       </c>
       <c r="L54">
         <f>K54/D54</f>
-        <v>7.9999999999999984E-3</v>
+        <v>8.0080080080080079E-3</v>
       </c>
       <c r="N54">
         <f>AA50/K54</f>
-        <v>1.3888888888888891</v>
+        <v>1.2949999999999999</v>
       </c>
       <c r="O54">
         <f>AA51/K54</f>
-        <v>3.7037037037037042</v>
+        <v>3.7</v>
       </c>
       <c r="P54">
         <f>AA52/K54</f>
-        <v>9.2592592592592595</v>
+        <v>9.25</v>
       </c>
       <c r="Q54">
         <f>AA53/(K54/3)</f>
-        <v>5.5555555555555562</v>
+        <v>5.55</v>
       </c>
       <c r="R54">
         <f>AA54/K54</f>
-        <v>4.6296296296296298</v>
+        <v>4.625</v>
       </c>
       <c r="S54">
         <f>AA55/K54</f>
-        <v>16.666666666666668</v>
+        <v>16.650000000000002</v>
       </c>
       <c r="T54">
         <f>AA56/(K54/3)</f>
-        <v>5.5555555555555562</v>
+        <v>5.55</v>
       </c>
       <c r="U54">
         <f>AA57/(K54/3)</f>
-        <v>6.9444444444444455</v>
+        <v>6.9375</v>
       </c>
       <c r="V54">
         <f>AA58/K54</f>
-        <v>23.148148148148149</v>
+        <v>23.125</v>
       </c>
       <c r="W54">
         <f>AA59/(K54/3)</f>
-        <v>9.7222222222222232</v>
+        <v>9.7125000000000004</v>
       </c>
       <c r="Z54" s="2" t="s">
         <v>35</v>
@@ -3048,7 +3060,7 @@
       <c r="Z59" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AA59" s="13">
+      <c r="AA59" s="2">
         <v>35</v>
       </c>
       <c r="AB59" s="13">
@@ -3400,8 +3412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3444,11 +3456,11 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6">
-        <f>(1/C6)*1000</f>
+        <f t="shared" ref="B6:B33" si="0">(1/C6)*1000</f>
         <v>1000</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:C33" si="0">D6*40</f>
+        <f t="shared" ref="C6:C33" si="1">D6*40</f>
         <v>1</v>
       </c>
       <c r="D6" s="3">
@@ -3458,21 +3470,21 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G17" si="1">F6/40</f>
+        <f t="shared" ref="G6:G17" si="2">F6/40</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="H6">
-        <f>(1/F6)*1000</f>
+        <f t="shared" ref="H6:H17" si="3">(1/F6)*1000</f>
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7">
-        <f>(1/C7)*1000</f>
+        <f t="shared" si="0"/>
         <v>62.5</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D7" s="4">
@@ -3482,21 +3494,21 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H7">
-        <f>(1/F7)*1000</f>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8">
-        <f>(1/C8)*1000</f>
+        <f t="shared" si="0"/>
         <v>125</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D8" s="4">
@@ -3506,21 +3518,21 @@
         <v>0.25</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.2500000000000003E-3</v>
       </c>
       <c r="H8">
-        <f>(1/F8)*1000</f>
+        <f t="shared" si="3"/>
         <v>4000</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9">
-        <f>(1/C9)*1000</f>
+        <f t="shared" si="0"/>
         <v>20.833333333333332</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="D9" s="4">
@@ -3530,21 +3542,21 @@
         <v>1.5</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="H9">
-        <f>(1/F9)*1000</f>
+        <f t="shared" si="3"/>
         <v>666.66666666666663</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10">
-        <f>(1/C10)*1000</f>
+        <f t="shared" si="0"/>
         <v>15.625</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="D10" s="4">
@@ -3554,356 +3566,399 @@
         <v>2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="H10">
-        <f>(1/F10)*1000</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11">
-        <f>(1/C11)*1000</f>
+        <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D11" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H11" t="e">
-        <f>(1/F11)*1000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12">
-        <f>(1/C12)*1000</f>
-        <v>625</v>
+        <f t="shared" si="0"/>
+        <v>714.28571428571422</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
+        <f t="shared" si="1"/>
+        <v>1.4000000000000001</v>
       </c>
       <c r="D12" s="4">
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H12" t="e">
-        <f>(1/F12)*1000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13">
-        <f>(1/C13)*1000</f>
-        <v>416.66666666666669</v>
+        <f t="shared" si="0"/>
+        <v>555.55555555555554</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>2.4</v>
+        <f t="shared" si="1"/>
+        <v>1.7999999999999998</v>
       </c>
       <c r="D13" s="4">
-        <v>0.06</v>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H13" t="e">
-        <f>(1/F13)*1000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14">
-        <f>(1/C14)*1000</f>
-        <v>312.5</v>
+        <f t="shared" si="0"/>
+        <v>454.5454545454545</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>3.2</v>
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D14" s="4">
-        <v>0.08</v>
+        <v>5.5E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H14" t="e">
-        <f>(1/F14)*1000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15">
-        <f>(1/C15)*1000</f>
-        <v>250</v>
+        <f t="shared" si="0"/>
+        <v>384.61538461538458</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>2.6</v>
       </c>
       <c r="D15" s="4">
-        <v>0.1</v>
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H15" t="e">
-        <f>(1/F15)*1000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16">
-        <f>(1/C16)*1000</f>
+        <f t="shared" si="0"/>
         <v>1666.6666666666667</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="D16" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H16" t="e">
-        <f>(1/F16)*1000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17">
-        <f>(1/C17)*1000</f>
-        <v>1000</v>
+        <f t="shared" si="0"/>
+        <v>1388.8888888888889</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.72</v>
       </c>
       <c r="D17" s="4">
-        <v>2.5000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H17" t="e">
-        <f>(1/F17)*1000</f>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18">
-        <f>(1/C18)*1000</f>
-        <v>833.33333333333337</v>
+        <f t="shared" si="0"/>
+        <v>1190.4761904761904</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
+        <f t="shared" si="1"/>
+        <v>0.84000000000000008</v>
       </c>
       <c r="D18" s="4">
-        <v>0.03</v>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19">
-        <f>(1/C19)*1000</f>
-        <v>714.28571428571422</v>
+        <f t="shared" si="0"/>
+        <v>1041.6666666666667</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>1.4000000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.96</v>
       </c>
       <c r="D19" s="4">
-        <v>3.5000000000000003E-2</v>
+        <v>2.4E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20">
-        <f>(1/C20)*1000</f>
-        <v>625</v>
+        <f t="shared" si="0"/>
+        <v>925.92592592592587</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
+        <f t="shared" si="1"/>
+        <v>1.08</v>
       </c>
       <c r="D20" s="4">
-        <v>0.04</v>
+        <v>2.7E-2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21">
-        <f>(1/C21)*1000</f>
-        <v>555.55555555555554</v>
+        <f t="shared" si="0"/>
+        <v>1000</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>1.7999999999999998</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D21" s="4">
-        <v>4.4999999999999998E-2</v>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22">
-        <f>(1/C22)*1000</f>
-        <v>1666.6666666666667</v>
+        <f t="shared" si="0"/>
+        <v>833.33333333333337</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>0.6</v>
+        <f t="shared" si="1"/>
+        <v>1.2</v>
       </c>
       <c r="D22" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>0.03</v>
+      </c>
+      <c r="E22" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23">
-        <f>(1/C23)*1000</f>
-        <v>1388.8888888888889</v>
+        <f t="shared" si="0"/>
+        <v>714.28571428571422</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>0.72</v>
+        <f t="shared" si="1"/>
+        <v>1.4000000000000001</v>
       </c>
       <c r="D23" s="4">
-        <v>1.7999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24">
-        <f>(1/C24)*1000</f>
-        <v>1190.4761904761904</v>
+        <f t="shared" si="0"/>
+        <v>625</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>0.84000000000000008</v>
+        <f t="shared" si="1"/>
+        <v>1.6</v>
       </c>
       <c r="D24" s="4">
-        <v>2.1000000000000001E-2</v>
+        <v>0.04</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25">
-        <f>(1/C25)*1000</f>
-        <v>1041.6666666666667</v>
+        <f t="shared" si="0"/>
+        <v>555.55555555555554</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>0.96</v>
+        <f t="shared" si="1"/>
+        <v>1.7999999999999998</v>
       </c>
       <c r="D25" s="4">
-        <v>2.4E-2</v>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <f>(1/C26)*1000</f>
-        <v>925.92592592592587</v>
+      <c r="B26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>1.08</v>
-      </c>
-      <c r="D26" s="4">
-        <v>2.7E-2</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" t="e">
-        <f>(1/C27)*1000</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" t="e">
-        <f>(1/C28)*1000</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" t="e">
-        <f>(1/C29)*1000</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" t="e">
-        <f>(1/C30)*1000</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" t="e">
-        <f>(1/C31)*1000</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" t="e">
-        <f>(1/C32)*1000</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="e">
-        <f>(1/C33)*1000</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/Tower-Data.xlsx
+++ b/Tower-Data.xlsx
@@ -682,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -836,7 +836,7 @@
       </c>
       <c r="O3">
         <f>AA4/K3</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P3">
         <f>AA5/(K3/3)</f>
@@ -848,11 +848,11 @@
       </c>
       <c r="R3">
         <f>AA7/(K3/3)</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="S3">
         <f>AA8/(K3/3)</f>
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="T3">
         <f>AA9/K3</f>
@@ -923,7 +923,7 @@
       </c>
       <c r="O4">
         <f>AA4/K4</f>
-        <v>4.7028571428571428</v>
+        <v>4.1150000000000002</v>
       </c>
       <c r="P4">
         <f>AA5/(K4/3)</f>
@@ -935,11 +935,11 @@
       </c>
       <c r="R4">
         <f>AA7/(K4/3)</f>
-        <v>17.635714285714286</v>
+        <v>15.872142857142856</v>
       </c>
       <c r="S4">
         <f>AA8/(K4/3)</f>
-        <v>63.488571428571426</v>
+        <v>52.907142857142858</v>
       </c>
       <c r="T4">
         <f>AA9/K4</f>
@@ -961,7 +961,7 @@
         <v>47</v>
       </c>
       <c r="AA4" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AB4" s="2">
         <v>0.8</v>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="O5">
         <f>AA4/K5</f>
-        <v>3.0666666666666669</v>
+        <v>2.6833333333333336</v>
       </c>
       <c r="P5">
         <f>AA5/(K5/3)</f>
@@ -1022,11 +1022,11 @@
       </c>
       <c r="R5">
         <f>AA7/(K5/3)</f>
-        <v>11.5</v>
+        <v>10.350000000000001</v>
       </c>
       <c r="S5">
         <f>AA8/(K5/3)</f>
-        <v>41.400000000000006</v>
+        <v>34.5</v>
       </c>
       <c r="T5">
         <f>AA9/K5</f>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="O6">
         <f>AA4/K6</f>
-        <v>2.1163636363636362</v>
+        <v>1.8518181818181818</v>
       </c>
       <c r="P6">
         <f>AA5/(K6/3)</f>
@@ -1111,11 +1111,11 @@
       </c>
       <c r="R6">
         <f>AA7/(K6/3)</f>
-        <v>7.9363636363636365</v>
+        <v>7.1427272727272726</v>
       </c>
       <c r="S6">
         <f>AA8/(K6/3)</f>
-        <v>28.57090909090909</v>
+        <v>23.809090909090909</v>
       </c>
       <c r="T6">
         <f>AA9/K6</f>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="O7">
         <f>AA4/K7</f>
-        <v>1.5384615384615385</v>
+        <v>1.3461538461538463</v>
       </c>
       <c r="P7">
         <f>AA5/(K7/3)</f>
@@ -1200,11 +1200,11 @@
       </c>
       <c r="R7">
         <f>AA7/(K7/3)</f>
-        <v>5.7692307692307701</v>
+        <v>5.1923076923076925</v>
       </c>
       <c r="S7">
         <f>AA8/(K7/3)</f>
-        <v>20.76923076923077</v>
+        <v>17.30769230769231</v>
       </c>
       <c r="T7">
         <f>AA9/K7</f>
@@ -1226,7 +1226,7 @@
         <v>35</v>
       </c>
       <c r="AA7" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB7" s="2">
         <v>1</v>
@@ -1243,7 +1243,7 @@
         <v>36</v>
       </c>
       <c r="AA8" s="2">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AB8" s="2">
         <v>0.6</v>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="O16">
         <f>AA17/K16</f>
-        <v>5.1428571428571423</v>
+        <v>4.4999999999999991</v>
       </c>
       <c r="P16">
         <f>AA18/K16</f>
@@ -1438,11 +1438,11 @@
       </c>
       <c r="R16">
         <f>AA20/K16</f>
-        <v>6.4285714285714279</v>
+        <v>5.7857142857142847</v>
       </c>
       <c r="S16">
         <f>AA21/K16</f>
-        <v>23.142857142857139</v>
+        <v>19.285714285714285</v>
       </c>
       <c r="T16">
         <f>AA22/K16</f>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="O17">
         <f>AA17/K17</f>
-        <v>3.0434782608695654</v>
+        <v>2.6630434782608696</v>
       </c>
       <c r="P17">
         <f>AA18/K17</f>
@@ -1525,11 +1525,11 @@
       </c>
       <c r="R17">
         <f>AA20/K17</f>
-        <v>3.8043478260869565</v>
+        <v>3.4239130434782612</v>
       </c>
       <c r="S17">
         <f>AA21/K17</f>
-        <v>13.695652173913045</v>
+        <v>11.413043478260869</v>
       </c>
       <c r="T17">
         <f>AA22/K17</f>
@@ -1551,7 +1551,7 @@
         <v>47</v>
       </c>
       <c r="AA17" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AB17" s="2">
         <v>0.8</v>
@@ -1600,7 +1600,7 @@
       </c>
       <c r="O18">
         <f>AA17/K18</f>
-        <v>2.125</v>
+        <v>1.859375</v>
       </c>
       <c r="P18">
         <f>AA18/K18</f>
@@ -1612,11 +1612,11 @@
       </c>
       <c r="R18">
         <f>AA20/K18</f>
-        <v>2.65625</v>
+        <v>2.390625</v>
       </c>
       <c r="S18">
         <f>AA21/K18</f>
-        <v>9.5625</v>
+        <v>7.96875</v>
       </c>
       <c r="T18">
         <f>AA22/K18</f>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="O19">
         <f>AA17/K19</f>
-        <v>1.6097560975609757</v>
+        <v>1.4085365853658538</v>
       </c>
       <c r="P19">
         <f>AA18/K19</f>
@@ -1701,11 +1701,11 @@
       </c>
       <c r="R19">
         <f>AA20/K19</f>
-        <v>2.0121951219512195</v>
+        <v>1.8109756097560976</v>
       </c>
       <c r="S19">
         <f>AA21/K19</f>
-        <v>7.2439024390243905</v>
+        <v>6.036585365853659</v>
       </c>
       <c r="T19">
         <f>AA22/K19</f>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="O20">
         <f>AA17/K20</f>
-        <v>1.28</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="P20">
         <f>AA18/K20</f>
@@ -1790,11 +1790,11 @@
       </c>
       <c r="R20">
         <f>AA20/K20</f>
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="S20">
         <f>AA21/K20</f>
-        <v>5.76</v>
+        <v>4.8</v>
       </c>
       <c r="T20">
         <f>AA22/K20</f>
@@ -1816,7 +1816,7 @@
         <v>35</v>
       </c>
       <c r="AA20" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB20" s="2">
         <v>1</v>
@@ -1834,7 +1834,7 @@
         <v>36</v>
       </c>
       <c r="AA21" s="2">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AB21" s="2">
         <v>0.6</v>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="O31">
         <f>AA32/K31</f>
-        <v>8.33</v>
+        <v>7.2887500000000003</v>
       </c>
       <c r="P31">
         <f>AA33/K31</f>
@@ -2017,11 +2017,11 @@
       </c>
       <c r="R31">
         <f>AA35/K31</f>
-        <v>10.412500000000001</v>
+        <v>9.3712499999999999</v>
       </c>
       <c r="S31">
         <f>AA36/K31</f>
-        <v>37.484999999999999</v>
+        <v>31.237500000000001</v>
       </c>
       <c r="T31">
         <f>AA37/(K31/3)</f>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="O32">
         <f>AA32/K32</f>
-        <v>5.5520000000000005</v>
+        <v>4.8580000000000005</v>
       </c>
       <c r="P32">
         <f>AA33/K32</f>
@@ -2106,11 +2106,11 @@
       </c>
       <c r="R32">
         <f>AA35/K32</f>
-        <v>6.94</v>
+        <v>6.2460000000000004</v>
       </c>
       <c r="S32">
         <f>AA36/K32</f>
-        <v>24.984000000000002</v>
+        <v>20.82</v>
       </c>
       <c r="T32">
         <f>AA37/(K32/3)</f>
@@ -2132,7 +2132,7 @@
         <v>47</v>
       </c>
       <c r="AA32" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AB32" s="2">
         <v>0.8</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="O33">
         <f>AA32/K33</f>
-        <v>3.9666666666666668</v>
+        <v>3.4708333333333332</v>
       </c>
       <c r="P33">
         <f>AA33/K33</f>
@@ -2195,11 +2195,11 @@
       </c>
       <c r="R33">
         <f>AA35/K33</f>
-        <v>4.958333333333333</v>
+        <v>4.4625000000000004</v>
       </c>
       <c r="S33">
         <f>AA36/K33</f>
-        <v>17.850000000000001</v>
+        <v>14.875</v>
       </c>
       <c r="T33">
         <f>AA37/(K33/3)</f>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="O34">
         <f>AA32/K34</f>
-        <v>2.9742857142857142</v>
+        <v>2.6025</v>
       </c>
       <c r="P34">
         <f>AA33/K34</f>
@@ -2286,11 +2286,11 @@
       </c>
       <c r="R34">
         <f>AA35/K34</f>
-        <v>3.7178571428571425</v>
+        <v>3.3460714285714284</v>
       </c>
       <c r="S34">
         <f>AA36/K34</f>
-        <v>13.384285714285713</v>
+        <v>11.153571428571428</v>
       </c>
       <c r="T34">
         <f>AA37/(K34/3)</f>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="O35">
         <f>AA32/K35</f>
-        <v>2.3125</v>
+        <v>2.0234375</v>
       </c>
       <c r="P35">
         <f>AA33/K35</f>
@@ -2377,11 +2377,11 @@
       </c>
       <c r="R35">
         <f>AA35/K35</f>
-        <v>2.890625</v>
+        <v>2.6015625</v>
       </c>
       <c r="S35">
         <f>AA36/K35</f>
-        <v>10.40625</v>
+        <v>8.671875</v>
       </c>
       <c r="T35">
         <f>AA37/(K35/3)</f>
@@ -2403,7 +2403,7 @@
         <v>35</v>
       </c>
       <c r="AA35" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB35" s="2">
         <v>1</v>
@@ -2420,7 +2420,7 @@
         <v>36</v>
       </c>
       <c r="AA36" s="2">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AB36" s="2">
         <v>0.6</v>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="O50">
         <f>AA51/K50</f>
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="P50">
         <f>AA52/K50</f>
@@ -2590,11 +2590,11 @@
       </c>
       <c r="R50">
         <f>AA54/K50</f>
-        <v>25</v>
+        <v>22.5</v>
       </c>
       <c r="S50">
         <f>AA55/K50</f>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="T50">
         <f>AA56/(K50/3)</f>
@@ -2667,7 +2667,7 @@
       </c>
       <c r="O51">
         <f>AA51/K51</f>
-        <v>11.106666666666667</v>
+        <v>9.7183333333333337</v>
       </c>
       <c r="P51">
         <f>AA52/K51</f>
@@ -2679,11 +2679,11 @@
       </c>
       <c r="R51">
         <f>AA54/K51</f>
-        <v>13.883333333333335</v>
+        <v>12.495000000000001</v>
       </c>
       <c r="S51">
         <f>AA55/K51</f>
-        <v>49.980000000000004</v>
+        <v>41.650000000000006</v>
       </c>
       <c r="T51">
         <f>AA56/(K51/3)</f>
@@ -2705,7 +2705,7 @@
         <v>47</v>
       </c>
       <c r="AA51" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AB51" s="2">
         <v>0.8</v>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="O52">
         <f>AA51/K52</f>
-        <v>7.1400000000000006</v>
+        <v>6.2475000000000005</v>
       </c>
       <c r="P52">
         <f>AA52/K52</f>
@@ -2768,11 +2768,11 @@
       </c>
       <c r="R52">
         <f>AA54/K52</f>
-        <v>8.9250000000000007</v>
+        <v>8.0325000000000006</v>
       </c>
       <c r="S52">
         <f>AA55/K52</f>
-        <v>32.130000000000003</v>
+        <v>26.775000000000002</v>
       </c>
       <c r="T52">
         <f>AA56/(K52/3)</f>
@@ -2847,7 +2847,7 @@
       </c>
       <c r="O53">
         <f>AA51/K53</f>
-        <v>5</v>
+        <v>4.375</v>
       </c>
       <c r="P53">
         <f>AA52/K53</f>
@@ -2859,11 +2859,11 @@
       </c>
       <c r="R53">
         <f>AA54/K53</f>
-        <v>6.25</v>
+        <v>5.625</v>
       </c>
       <c r="S53">
         <f>AA55/K53</f>
-        <v>22.5</v>
+        <v>18.75</v>
       </c>
       <c r="T53">
         <f>AA56/(K53/3)</f>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="O54">
         <f>AA51/K54</f>
-        <v>3.7</v>
+        <v>3.2375000000000003</v>
       </c>
       <c r="P54">
         <f>AA52/K54</f>
@@ -2950,11 +2950,11 @@
       </c>
       <c r="R54">
         <f>AA54/K54</f>
-        <v>4.625</v>
+        <v>4.1625000000000005</v>
       </c>
       <c r="S54">
         <f>AA55/K54</f>
-        <v>16.650000000000002</v>
+        <v>13.875</v>
       </c>
       <c r="T54">
         <f>AA56/(K54/3)</f>
@@ -2976,7 +2976,7 @@
         <v>35</v>
       </c>
       <c r="AA54" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB54" s="2">
         <v>1</v>
@@ -2993,7 +2993,7 @@
         <v>36</v>
       </c>
       <c r="AA55" s="2">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AB55" s="2">
         <v>0.6</v>

--- a/Tower-Data.xlsx
+++ b/Tower-Data.xlsx
@@ -256,7 +256,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -381,11 +381,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -400,6 +411,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -682,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1980,7 +1992,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="2">
-        <v>1666</v>
+        <v>1616</v>
       </c>
       <c r="G31" s="2">
         <v>64</v>
@@ -1993,51 +2005,51 @@
       </c>
       <c r="K31">
         <f>E31*(1000/F31)</f>
-        <v>4.8019207683073226</v>
+        <v>4.9504950495049505</v>
       </c>
       <c r="L31">
         <f>K31/D31</f>
-        <v>2.4009603841536612E-2</v>
+        <v>2.4752475247524754E-2</v>
       </c>
       <c r="N31">
         <f>AA31/(K31)</f>
-        <v>2.9155000000000002</v>
+        <v>2.8279999999999998</v>
       </c>
       <c r="O31">
         <f>AA32/K31</f>
-        <v>7.2887500000000003</v>
+        <v>7.07</v>
       </c>
       <c r="P31">
         <f>AA33/K31</f>
-        <v>20.825000000000003</v>
+        <v>20.2</v>
       </c>
       <c r="Q31">
         <f>AA34/(K31/3)</f>
-        <v>12.495000000000001</v>
+        <v>12.120000000000001</v>
       </c>
       <c r="R31">
         <f>AA35/K31</f>
-        <v>9.3712499999999999</v>
+        <v>9.09</v>
       </c>
       <c r="S31">
         <f>AA36/K31</f>
-        <v>31.237500000000001</v>
+        <v>30.3</v>
       </c>
       <c r="T31">
         <f>AA37/(K31/3)</f>
-        <v>12.495000000000001</v>
+        <v>12.120000000000001</v>
       </c>
       <c r="U31">
         <f>AA38/(K31/3)</f>
-        <v>15.61875</v>
+        <v>15.15</v>
       </c>
       <c r="V31">
         <f>AA39/K31</f>
-        <v>52.0625</v>
+        <v>50.5</v>
       </c>
       <c r="W31">
         <f>AA40/(K31/3)</f>
-        <v>21.866250000000001</v>
+        <v>21.21</v>
       </c>
       <c r="Z31" s="10" t="s">
         <v>32</v>
@@ -2066,10 +2078,10 @@
         <v>450</v>
       </c>
       <c r="E32" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" s="2">
-        <v>1388</v>
+        <v>1338</v>
       </c>
       <c r="G32" s="2">
         <v>72</v>
@@ -2082,51 +2094,51 @@
       </c>
       <c r="K32">
         <f>E32*(1000/F32)</f>
-        <v>7.2046109510086449</v>
+        <v>8.2212257100149468</v>
       </c>
       <c r="L32">
         <f>K32/D32</f>
-        <v>1.6010246557796988E-2</v>
+        <v>1.8269390466699884E-2</v>
       </c>
       <c r="N32">
         <f>AA31/K32</f>
-        <v>1.9432000000000003</v>
+        <v>1.7029090909090911</v>
       </c>
       <c r="O32">
         <f>AA32/K32</f>
-        <v>4.8580000000000005</v>
+        <v>4.2572727272727278</v>
       </c>
       <c r="P32">
         <f>AA33/K32</f>
-        <v>13.88</v>
+        <v>12.163636363636364</v>
       </c>
       <c r="Q32">
         <f>AA34/(K32/3)</f>
-        <v>8.3280000000000012</v>
+        <v>7.2981818181818188</v>
       </c>
       <c r="R32">
         <f>AA35/K32</f>
-        <v>6.2460000000000004</v>
+        <v>5.4736363636363645</v>
       </c>
       <c r="S32">
         <f>AA36/K32</f>
-        <v>20.82</v>
+        <v>18.245454545454546</v>
       </c>
       <c r="T32">
         <f>AA37/(K32/3)</f>
-        <v>8.3280000000000012</v>
+        <v>7.2981818181818188</v>
       </c>
       <c r="U32">
         <f>AA38/(K32/3)</f>
-        <v>10.410000000000002</v>
+        <v>9.122727272727273</v>
       </c>
       <c r="V32">
         <f>AA39/K32</f>
-        <v>34.700000000000003</v>
+        <v>30.409090909090914</v>
       </c>
       <c r="W32">
         <f>AA40/(K32/3)</f>
-        <v>14.574000000000002</v>
+        <v>12.771818181818183</v>
       </c>
       <c r="Z32" s="2" t="s">
         <v>47</v>
@@ -2155,10 +2167,10 @@
         <v>750</v>
       </c>
       <c r="E33" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F33" s="2">
-        <v>1190</v>
+        <v>1140</v>
       </c>
       <c r="G33" s="2">
         <v>80</v>
@@ -2171,51 +2183,51 @@
       </c>
       <c r="K33">
         <f>E33*(1000/F33)</f>
-        <v>10.084033613445378</v>
+        <v>12.280701754385964</v>
       </c>
       <c r="L33">
         <f>K33/D33</f>
-        <v>1.3445378151260503E-2</v>
+        <v>1.6374269005847951E-2</v>
       </c>
       <c r="N33">
         <f>AA31/K33</f>
-        <v>1.3883333333333334</v>
+        <v>1.1400000000000001</v>
       </c>
       <c r="O33">
         <f>AA32/K33</f>
-        <v>3.4708333333333332</v>
+        <v>2.85</v>
       </c>
       <c r="P33">
         <f>AA33/K33</f>
-        <v>9.9166666666666661</v>
+        <v>8.1428571428571441</v>
       </c>
       <c r="Q33">
         <f>AA34/(K33/3)</f>
-        <v>5.95</v>
+        <v>4.8857142857142861</v>
       </c>
       <c r="R33">
         <f>AA35/K33</f>
-        <v>4.4625000000000004</v>
+        <v>3.6642857142857146</v>
       </c>
       <c r="S33">
         <f>AA36/K33</f>
-        <v>14.875</v>
+        <v>12.214285714285715</v>
       </c>
       <c r="T33">
         <f>AA37/(K33/3)</f>
-        <v>5.95</v>
+        <v>4.8857142857142861</v>
       </c>
       <c r="U33">
         <f>AA38/(K33/3)</f>
-        <v>7.4375</v>
+        <v>6.1071428571428568</v>
       </c>
       <c r="V33">
         <f>AA39/K33</f>
-        <v>24.791666666666668</v>
+        <v>20.357142857142858</v>
       </c>
       <c r="W33">
         <f>AA40/(K33/3)</f>
-        <v>10.4125</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="Z33" s="2" t="s">
         <v>33</v>
@@ -2246,10 +2258,10 @@
         <v>1100</v>
       </c>
       <c r="E34" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F34" s="2">
-        <v>1041</v>
+        <v>991</v>
       </c>
       <c r="G34" s="2">
         <v>88</v>
@@ -2262,51 +2274,51 @@
       </c>
       <c r="K34">
         <f>E34*(1000/F34)</f>
-        <v>13.448607108549472</v>
+        <v>17.15438950554995</v>
       </c>
       <c r="L34">
         <f>K34/D34</f>
-        <v>1.2226006462317703E-2</v>
+        <v>1.5594899550499955E-2</v>
       </c>
       <c r="N34">
         <f>AA31/K34</f>
-        <v>1.0409999999999999</v>
+        <v>0.8161176470588235</v>
       </c>
       <c r="O34">
         <f>AA32/K34</f>
-        <v>2.6025</v>
+        <v>2.0402941176470586</v>
       </c>
       <c r="P34">
         <f>AA33/K34</f>
-        <v>7.4357142857142851</v>
+        <v>5.8294117647058821</v>
       </c>
       <c r="Q34">
         <f>AA34/(K34/3)</f>
-        <v>4.4614285714285709</v>
+        <v>3.4976470588235293</v>
       </c>
       <c r="R34">
         <f>AA35/K34</f>
-        <v>3.3460714285714284</v>
+        <v>2.6232352941176469</v>
       </c>
       <c r="S34">
         <f>AA36/K34</f>
-        <v>11.153571428571428</v>
+        <v>8.7441176470588236</v>
       </c>
       <c r="T34">
         <f>AA37/(K34/3)</f>
-        <v>4.4614285714285709</v>
+        <v>3.4976470588235293</v>
       </c>
       <c r="U34">
         <f>AA38/(K34/3)</f>
-        <v>5.5767857142857133</v>
+        <v>4.3720588235294118</v>
       </c>
       <c r="V34">
         <f>AA39/K34</f>
-        <v>18.589285714285712</v>
+        <v>14.573529411764705</v>
       </c>
       <c r="W34">
         <f>AA40/(K34/3)</f>
-        <v>7.8074999999999992</v>
+        <v>6.1208823529411767</v>
       </c>
       <c r="Z34" s="2" t="s">
         <v>34</v>
@@ -2337,10 +2349,10 @@
         <v>1500</v>
       </c>
       <c r="E35" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F35" s="2">
-        <v>925</v>
+        <v>875</v>
       </c>
       <c r="G35" s="2">
         <v>96</v>
@@ -2353,51 +2365,51 @@
       </c>
       <c r="K35">
         <f>E35*(1000/F35)</f>
-        <v>17.297297297297298</v>
+        <v>22.857142857142854</v>
       </c>
       <c r="L35">
         <f>K35/D35</f>
-        <v>1.1531531531531532E-2</v>
+        <v>1.5238095238095236E-2</v>
       </c>
       <c r="N35">
         <f>AA31/K35</f>
-        <v>0.80937499999999996</v>
+        <v>0.61250000000000004</v>
       </c>
       <c r="O35">
         <f>AA32/K35</f>
-        <v>2.0234375</v>
+        <v>1.5312500000000002</v>
       </c>
       <c r="P35">
         <f>AA33/K35</f>
-        <v>5.78125</v>
+        <v>4.3750000000000009</v>
       </c>
       <c r="Q35">
         <f>AA34/(K35/3)</f>
-        <v>3.4687499999999996</v>
+        <v>2.6250000000000004</v>
       </c>
       <c r="R35">
         <f>AA35/K35</f>
-        <v>2.6015625</v>
+        <v>1.9687500000000002</v>
       </c>
       <c r="S35">
         <f>AA36/K35</f>
-        <v>8.671875</v>
+        <v>6.5625000000000009</v>
       </c>
       <c r="T35">
         <f>AA37/(K35/3)</f>
-        <v>3.4687499999999996</v>
+        <v>2.6250000000000004</v>
       </c>
       <c r="U35">
         <f>AA38/(K35/3)</f>
-        <v>4.3359374999999991</v>
+        <v>3.2812500000000004</v>
       </c>
       <c r="V35">
         <f>AA39/K35</f>
-        <v>14.453125</v>
+        <v>10.937500000000002</v>
       </c>
       <c r="W35">
         <f>AA40/(K35/3)</f>
-        <v>6.0703124999999991</v>
+        <v>4.5937500000000009</v>
       </c>
       <c r="Z35" s="2" t="s">
         <v>35</v>
@@ -2416,6 +2428,7 @@
       </c>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="E36" s="14"/>
       <c r="Z36" s="2" t="s">
         <v>36</v>
       </c>
@@ -2550,13 +2563,13 @@
         <v>170</v>
       </c>
       <c r="E50" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" s="2">
         <v>1000</v>
       </c>
       <c r="G50" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>25</v>
@@ -2566,51 +2579,51 @@
       </c>
       <c r="K50">
         <f>E50*(1000/F50)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L50">
         <f>K50/D50</f>
-        <v>1.1764705882352941E-2</v>
+        <v>1.7647058823529412E-2</v>
       </c>
       <c r="N50">
         <f>AA50/(K50)</f>
-        <v>7</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="O50">
         <f>AA51/K50</f>
-        <v>17.5</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="P50">
         <f>AA52/K50</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="Q50">
         <f>AA53/(K50/3)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R50">
         <f>AA54/K50</f>
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="S50">
         <f>AA55/K50</f>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="T50">
         <f>AA56/(K50/3)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U50">
         <f>AA57/(K50/3)</f>
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="V50">
         <f>AA58/K50</f>
-        <v>125</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="W50">
         <f>AA59/(K50/3)</f>
-        <v>52.5</v>
+        <v>35</v>
       </c>
       <c r="Z50" s="10" t="s">
         <v>32</v>
@@ -2639,13 +2652,13 @@
         <v>390</v>
       </c>
       <c r="E51" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" s="2">
         <v>833</v>
       </c>
       <c r="G51" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>25</v>
@@ -2655,51 +2668,51 @@
       </c>
       <c r="K51">
         <f>E51*(1000/F51)</f>
-        <v>3.601440576230492</v>
+        <v>4.8019207683073226</v>
       </c>
       <c r="L51">
         <f>K51/D51</f>
-        <v>9.2344630159756202E-3</v>
+        <v>1.231261735463416E-2</v>
       </c>
       <c r="N51">
         <f>AA50/K51</f>
-        <v>3.8873333333333338</v>
+        <v>2.9155000000000002</v>
       </c>
       <c r="O51">
         <f>AA51/K51</f>
-        <v>9.7183333333333337</v>
+        <v>7.2887500000000003</v>
       </c>
       <c r="P51">
         <f>AA52/K51</f>
-        <v>27.766666666666669</v>
+        <v>20.825000000000003</v>
       </c>
       <c r="Q51">
         <f>AA53/(K51/3)</f>
-        <v>16.66</v>
+        <v>12.495000000000001</v>
       </c>
       <c r="R51">
         <f>AA54/K51</f>
-        <v>12.495000000000001</v>
+        <v>9.3712499999999999</v>
       </c>
       <c r="S51">
         <f>AA55/K51</f>
-        <v>41.650000000000006</v>
+        <v>31.237500000000001</v>
       </c>
       <c r="T51">
         <f>AA56/(K51/3)</f>
-        <v>16.66</v>
+        <v>12.495000000000001</v>
       </c>
       <c r="U51">
         <f>AA57/(K51/3)</f>
-        <v>20.825000000000003</v>
+        <v>15.61875</v>
       </c>
       <c r="V51">
         <f>AA58/K51</f>
-        <v>69.416666666666671</v>
+        <v>52.0625</v>
       </c>
       <c r="W51">
         <f>AA59/(K51/3)</f>
-        <v>29.155000000000001</v>
+        <v>21.866250000000001</v>
       </c>
       <c r="Z51" s="2" t="s">
         <v>47</v>
@@ -2728,13 +2741,13 @@
         <v>660</v>
       </c>
       <c r="E52" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F52" s="2">
         <v>714</v>
       </c>
       <c r="G52" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>25</v>
@@ -2744,51 +2757,51 @@
       </c>
       <c r="K52">
         <f>E52*(1000/F52)</f>
-        <v>5.6022408963585431</v>
+        <v>7.0028011204481793</v>
       </c>
       <c r="L52">
         <f>K52/D52</f>
-        <v>8.4882437823614286E-3</v>
+        <v>1.0610304727951787E-2</v>
       </c>
       <c r="N52">
         <f>AA50/K52</f>
-        <v>2.4990000000000001</v>
+        <v>1.9992000000000001</v>
       </c>
       <c r="O52">
         <f>AA51/K52</f>
-        <v>6.2475000000000005</v>
+        <v>4.9980000000000002</v>
       </c>
       <c r="P52">
         <f>AA52/K52</f>
-        <v>17.850000000000001</v>
+        <v>14.28</v>
       </c>
       <c r="Q52">
         <f>AA53/(K52/3)</f>
-        <v>10.71</v>
+        <v>8.5679999999999996</v>
       </c>
       <c r="R52">
         <f>AA54/K52</f>
-        <v>8.0325000000000006</v>
+        <v>6.4260000000000002</v>
       </c>
       <c r="S52">
         <f>AA55/K52</f>
-        <v>26.775000000000002</v>
+        <v>21.42</v>
       </c>
       <c r="T52">
         <f>AA56/(K52/3)</f>
-        <v>10.71</v>
+        <v>8.5679999999999996</v>
       </c>
       <c r="U52">
         <f>AA57/(K52/3)</f>
-        <v>13.387500000000001</v>
+        <v>10.709999999999999</v>
       </c>
       <c r="V52">
         <f>AA58/K52</f>
-        <v>44.625</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="W52">
         <f>AA59/(K52/3)</f>
-        <v>18.742500000000003</v>
+        <v>14.994</v>
       </c>
       <c r="Z52" s="2" t="s">
         <v>33</v>
@@ -2819,13 +2832,13 @@
         <v>980</v>
       </c>
       <c r="E53" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F53" s="2">
         <v>625</v>
       </c>
       <c r="G53" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>25</v>
@@ -2835,51 +2848,51 @@
       </c>
       <c r="K53">
         <f>E53*(1000/F53)</f>
-        <v>8</v>
+        <v>9.6000000000000014</v>
       </c>
       <c r="L53">
         <f>K53/D53</f>
-        <v>8.1632653061224497E-3</v>
+        <v>9.79591836734694E-3</v>
       </c>
       <c r="N53">
         <f>AA50/K53</f>
-        <v>1.75</v>
+        <v>1.458333333333333</v>
       </c>
       <c r="O53">
         <f>AA51/K53</f>
-        <v>4.375</v>
+        <v>3.6458333333333326</v>
       </c>
       <c r="P53">
         <f>AA52/K53</f>
-        <v>12.5</v>
+        <v>10.416666666666664</v>
       </c>
       <c r="Q53">
         <f>AA53/(K53/3)</f>
-        <v>7.5</v>
+        <v>6.2499999999999991</v>
       </c>
       <c r="R53">
         <f>AA54/K53</f>
-        <v>5.625</v>
+        <v>4.6874999999999991</v>
       </c>
       <c r="S53">
         <f>AA55/K53</f>
-        <v>18.75</v>
+        <v>15.624999999999998</v>
       </c>
       <c r="T53">
         <f>AA56/(K53/3)</f>
-        <v>7.5</v>
+        <v>6.2499999999999991</v>
       </c>
       <c r="U53">
         <f>AA57/(K53/3)</f>
-        <v>9.375</v>
+        <v>7.8124999999999982</v>
       </c>
       <c r="V53">
         <f>AA58/K53</f>
-        <v>31.25</v>
+        <v>26.041666666666664</v>
       </c>
       <c r="W53">
         <f>AA59/(K53/3)</f>
-        <v>13.125</v>
+        <v>10.937499999999998</v>
       </c>
       <c r="Z53" s="2" t="s">
         <v>34</v>
@@ -2910,13 +2923,13 @@
         <v>1350</v>
       </c>
       <c r="E54" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F54" s="2">
         <v>555</v>
       </c>
       <c r="G54" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>25</v>
@@ -2926,51 +2939,51 @@
       </c>
       <c r="K54">
         <f>E54*(1000/F54)</f>
-        <v>10.810810810810811</v>
+        <v>12.612612612612613</v>
       </c>
       <c r="L54">
         <f>K54/D54</f>
-        <v>8.0080080080080079E-3</v>
+        <v>9.3426760093426771E-3</v>
       </c>
       <c r="N54">
         <f>AA50/K54</f>
-        <v>1.2949999999999999</v>
+        <v>1.1099999999999999</v>
       </c>
       <c r="O54">
         <f>AA51/K54</f>
-        <v>3.2375000000000003</v>
+        <v>2.7749999999999999</v>
       </c>
       <c r="P54">
         <f>AA52/K54</f>
-        <v>9.25</v>
+        <v>7.9285714285714279</v>
       </c>
       <c r="Q54">
         <f>AA53/(K54/3)</f>
-        <v>5.55</v>
+        <v>4.7571428571428571</v>
       </c>
       <c r="R54">
         <f>AA54/K54</f>
-        <v>4.1625000000000005</v>
+        <v>3.5678571428571426</v>
       </c>
       <c r="S54">
         <f>AA55/K54</f>
-        <v>13.875</v>
+        <v>11.892857142857142</v>
       </c>
       <c r="T54">
         <f>AA56/(K54/3)</f>
-        <v>5.55</v>
+        <v>4.7571428571428571</v>
       </c>
       <c r="U54">
         <f>AA57/(K54/3)</f>
-        <v>6.9375</v>
+        <v>5.9464285714285712</v>
       </c>
       <c r="V54">
         <f>AA58/K54</f>
-        <v>23.125</v>
+        <v>19.821428571428569</v>
       </c>
       <c r="W54">
         <f>AA59/(K54/3)</f>
-        <v>9.7125000000000004</v>
+        <v>8.3249999999999993</v>
       </c>
       <c r="Z54" s="2" t="s">
         <v>35</v>
@@ -3412,7 +3425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:B15"/>
     </sheetView>
   </sheetViews>
@@ -3977,8 +3990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4568,7 +4581,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C36">
         <v>12</v>

--- a/Tower-Data.xlsx
+++ b/Tower-Data.xlsx
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,7 +1415,8 @@
         <v>14</v>
       </c>
       <c r="F16" s="2">
-        <v>1800</v>
+        <f>1800*1.1</f>
+        <v>1980.0000000000002</v>
       </c>
       <c r="G16" s="2">
         <v>72</v>
@@ -1426,51 +1427,51 @@
       <c r="I16" s="2"/>
       <c r="K16">
         <f>E16*(1000/F16)</f>
-        <v>7.7777777777777786</v>
+        <v>7.0707070707070692</v>
       </c>
       <c r="L16">
         <f>K16/D16</f>
-        <v>3.888888888888889E-2</v>
+        <v>3.5353535353535345E-2</v>
       </c>
       <c r="N16">
         <f>AA16/(K16)</f>
-        <v>1.7999999999999998</v>
+        <v>1.9800000000000004</v>
       </c>
       <c r="O16">
         <f>AA17/K16</f>
-        <v>4.4999999999999991</v>
+        <v>4.9500000000000011</v>
       </c>
       <c r="P16">
         <f>AA18/K16</f>
-        <v>12.857142857142856</v>
+        <v>14.142857142857146</v>
       </c>
       <c r="Q16">
         <f>AA19/(K16/3)</f>
-        <v>7.7142857142857126</v>
+        <v>8.4857142857142875</v>
       </c>
       <c r="R16">
         <f>AA20/K16</f>
-        <v>5.7857142857142847</v>
+        <v>6.3642857142857157</v>
       </c>
       <c r="S16">
         <f>AA21/K16</f>
-        <v>19.285714285714285</v>
+        <v>21.214285714285719</v>
       </c>
       <c r="T16">
         <f>AA22/K16</f>
-        <v>2.5714285714285712</v>
+        <v>2.8285714285714292</v>
       </c>
       <c r="U16">
         <f>AA23/K16</f>
-        <v>3.214285714285714</v>
+        <v>3.5357142857142865</v>
       </c>
       <c r="V16">
         <f>AA24/K16</f>
-        <v>32.142857142857139</v>
+        <v>35.357142857142868</v>
       </c>
       <c r="W16">
         <f>AA25/(K16/3)</f>
-        <v>13.499999999999998</v>
+        <v>14.850000000000003</v>
       </c>
       <c r="Z16" s="10" t="s">
         <v>32</v>
@@ -1502,7 +1503,8 @@
         <v>23</v>
       </c>
       <c r="F17" s="2">
-        <v>1750</v>
+        <f>1750*1.1</f>
+        <v>1925.0000000000002</v>
       </c>
       <c r="G17" s="2">
         <v>81</v>
@@ -1513,51 +1515,51 @@
       <c r="I17" s="2"/>
       <c r="K17">
         <f>E17*(1000/F17)</f>
-        <v>13.142857142857142</v>
+        <v>11.948051948051948</v>
       </c>
       <c r="L17">
         <f>K17/D17</f>
-        <v>2.9206349206349205E-2</v>
+        <v>2.6551226551226551E-2</v>
       </c>
       <c r="N17">
         <f>AA16/K17</f>
-        <v>1.0652173913043479</v>
+        <v>1.1717391304347826</v>
       </c>
       <c r="O17">
         <f>AA17/K17</f>
-        <v>2.6630434782608696</v>
+        <v>2.9293478260869565</v>
       </c>
       <c r="P17">
         <f>AA18/K17</f>
-        <v>7.6086956521739131</v>
+        <v>8.3695652173913047</v>
       </c>
       <c r="Q17">
         <f>AA19/(K17/3)</f>
-        <v>4.5652173913043486</v>
+        <v>5.0217391304347831</v>
       </c>
       <c r="R17">
         <f>AA20/K17</f>
-        <v>3.4239130434782612</v>
+        <v>3.7663043478260869</v>
       </c>
       <c r="S17">
         <f>AA21/K17</f>
-        <v>11.413043478260869</v>
+        <v>12.554347826086957</v>
       </c>
       <c r="T17">
         <f>AA22/K17</f>
-        <v>1.5217391304347827</v>
+        <v>1.673913043478261</v>
       </c>
       <c r="U17">
         <f>AA23/K17</f>
-        <v>1.9021739130434783</v>
+        <v>2.0923913043478262</v>
       </c>
       <c r="V17">
         <f>AA24/K17</f>
-        <v>19.021739130434785</v>
+        <v>20.923913043478262</v>
       </c>
       <c r="W17">
         <f>AA25/(K17/3)</f>
-        <v>7.9891304347826093</v>
+        <v>8.788043478260871</v>
       </c>
       <c r="Z17" s="2" t="s">
         <v>47</v>
@@ -1589,7 +1591,7 @@
         <v>32</v>
       </c>
       <c r="F18" s="2">
-        <v>1700</v>
+        <v>1870</v>
       </c>
       <c r="G18" s="2">
         <v>90</v>
@@ -1600,51 +1602,51 @@
       <c r="I18" s="2"/>
       <c r="K18">
         <f>E18*(1000/F18)</f>
-        <v>18.823529411764707</v>
+        <v>17.112299465240643</v>
       </c>
       <c r="L18">
         <f>K18/D18</f>
-        <v>2.5098039215686277E-2</v>
+        <v>2.2816399286987525E-2</v>
       </c>
       <c r="N18">
         <f>AA16/K18</f>
-        <v>0.74375000000000002</v>
+        <v>0.81812499999999999</v>
       </c>
       <c r="O18">
         <f>AA17/K18</f>
-        <v>1.859375</v>
+        <v>2.0453125000000001</v>
       </c>
       <c r="P18">
         <f>AA18/K18</f>
-        <v>5.3125</v>
+        <v>5.84375</v>
       </c>
       <c r="Q18">
         <f>AA19/(K18/3)</f>
-        <v>3.1875</v>
+        <v>3.5062500000000001</v>
       </c>
       <c r="R18">
         <f>AA20/K18</f>
-        <v>2.390625</v>
+        <v>2.6296874999999997</v>
       </c>
       <c r="S18">
         <f>AA21/K18</f>
-        <v>7.96875</v>
+        <v>8.765625</v>
       </c>
       <c r="T18">
         <f>AA22/K18</f>
-        <v>1.0625</v>
+        <v>1.16875</v>
       </c>
       <c r="U18">
         <f>AA23/K18</f>
-        <v>1.328125</v>
+        <v>1.4609375</v>
       </c>
       <c r="V18">
         <f>AA24/K18</f>
-        <v>13.28125</v>
+        <v>14.609375</v>
       </c>
       <c r="W18">
         <f>AA25/(K18/3)</f>
-        <v>5.578125</v>
+        <v>6.1359374999999998</v>
       </c>
       <c r="Z18" s="2" t="s">
         <v>33</v>
@@ -1678,7 +1680,8 @@
         <v>41</v>
       </c>
       <c r="F19" s="2">
-        <v>1650</v>
+        <f>1650*1.1</f>
+        <v>1815.0000000000002</v>
       </c>
       <c r="G19" s="2">
         <v>99</v>
@@ -1689,51 +1692,51 @@
       <c r="I19" s="2"/>
       <c r="K19">
         <f>E19*(1000/F19)</f>
-        <v>24.848484848484848</v>
+        <v>22.589531680440768</v>
       </c>
       <c r="L19">
         <f>K19/D19</f>
-        <v>2.2589531680440769E-2</v>
+        <v>2.053593789130979E-2</v>
       </c>
       <c r="N19">
         <f>AA16/K19</f>
-        <v>0.56341463414634152</v>
+        <v>0.61975609756097572</v>
       </c>
       <c r="O19">
         <f>AA17/K19</f>
-        <v>1.4085365853658538</v>
+        <v>1.5493902439024392</v>
       </c>
       <c r="P19">
         <f>AA18/K19</f>
-        <v>4.024390243902439</v>
+        <v>4.4268292682926838</v>
       </c>
       <c r="Q19">
         <f>AA19/(K19/3)</f>
-        <v>2.4146341463414638</v>
+        <v>2.6560975609756103</v>
       </c>
       <c r="R19">
         <f>AA20/K19</f>
-        <v>1.8109756097560976</v>
+        <v>1.9920731707317076</v>
       </c>
       <c r="S19">
         <f>AA21/K19</f>
-        <v>6.036585365853659</v>
+        <v>6.6402439024390256</v>
       </c>
       <c r="T19">
         <f>AA22/K19</f>
-        <v>0.80487804878048785</v>
+        <v>0.88536585365853671</v>
       </c>
       <c r="U19">
         <f>AA23/K19</f>
-        <v>1.0060975609756098</v>
+        <v>1.1067073170731709</v>
       </c>
       <c r="V19">
         <f>AA24/K19</f>
-        <v>10.060975609756097</v>
+        <v>11.067073170731708</v>
       </c>
       <c r="W19">
         <f>AA25/(K19/3)</f>
-        <v>4.2256097560975618</v>
+        <v>4.6481707317073182</v>
       </c>
       <c r="Z19" s="2" t="s">
         <v>34</v>
@@ -1767,7 +1770,7 @@
         <v>50</v>
       </c>
       <c r="F20" s="2">
-        <v>1600</v>
+        <v>1760</v>
       </c>
       <c r="G20" s="2">
         <v>108</v>
@@ -1778,51 +1781,51 @@
       <c r="I20" s="2"/>
       <c r="K20">
         <f>E20*(1000/F20)</f>
-        <v>31.25</v>
+        <v>28.40909090909091</v>
       </c>
       <c r="L20">
         <f>K20/D20</f>
-        <v>2.0833333333333332E-2</v>
+        <v>1.893939393939394E-2</v>
       </c>
       <c r="N20">
         <f>AA16/K20</f>
-        <v>0.44800000000000001</v>
+        <v>0.49279999999999996</v>
       </c>
       <c r="O20">
         <f>AA17/K20</f>
-        <v>1.1200000000000001</v>
+        <v>1.232</v>
       </c>
       <c r="P20">
         <f>AA18/K20</f>
-        <v>3.2</v>
+        <v>3.52</v>
       </c>
       <c r="Q20">
         <f>AA19/(K20/3)</f>
-        <v>1.9200000000000002</v>
+        <v>2.1119999999999997</v>
       </c>
       <c r="R20">
         <f>AA20/K20</f>
-        <v>1.44</v>
+        <v>1.5839999999999999</v>
       </c>
       <c r="S20">
         <f>AA21/K20</f>
-        <v>4.8</v>
+        <v>5.28</v>
       </c>
       <c r="T20">
         <f>AA22/K20</f>
-        <v>0.64</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="U20">
         <f>AA23/K20</f>
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="V20">
         <f>AA24/K20</f>
-        <v>8</v>
+        <v>8.7999999999999989</v>
       </c>
       <c r="W20">
         <f>AA25/(K20/3)</f>
-        <v>3.3600000000000003</v>
+        <v>3.6959999999999997</v>
       </c>
       <c r="Z20" s="2" t="s">
         <v>35</v>
@@ -1992,7 +1995,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="2">
-        <v>1616</v>
+        <v>1816</v>
       </c>
       <c r="G31" s="2">
         <v>64</v>
@@ -2005,51 +2008,51 @@
       </c>
       <c r="K31">
         <f>E31*(1000/F31)</f>
-        <v>4.9504950495049505</v>
+        <v>4.4052863436123344</v>
       </c>
       <c r="L31">
         <f>K31/D31</f>
-        <v>2.4752475247524754E-2</v>
+        <v>2.2026431718061672E-2</v>
       </c>
       <c r="N31">
         <f>AA31/(K31)</f>
-        <v>2.8279999999999998</v>
+        <v>3.1780000000000004</v>
       </c>
       <c r="O31">
         <f>AA32/K31</f>
-        <v>7.07</v>
+        <v>7.9450000000000003</v>
       </c>
       <c r="P31">
         <f>AA33/K31</f>
-        <v>20.2</v>
+        <v>22.700000000000003</v>
       </c>
       <c r="Q31">
         <f>AA34/(K31/3)</f>
-        <v>12.120000000000001</v>
+        <v>13.620000000000001</v>
       </c>
       <c r="R31">
         <f>AA35/K31</f>
-        <v>9.09</v>
+        <v>10.215000000000002</v>
       </c>
       <c r="S31">
         <f>AA36/K31</f>
-        <v>30.3</v>
+        <v>34.050000000000004</v>
       </c>
       <c r="T31">
         <f>AA37/(K31/3)</f>
-        <v>12.120000000000001</v>
+        <v>13.620000000000001</v>
       </c>
       <c r="U31">
         <f>AA38/(K31/3)</f>
-        <v>15.15</v>
+        <v>17.025000000000002</v>
       </c>
       <c r="V31">
         <f>AA39/K31</f>
-        <v>50.5</v>
+        <v>56.750000000000007</v>
       </c>
       <c r="W31">
         <f>AA40/(K31/3)</f>
-        <v>21.21</v>
+        <v>23.835000000000001</v>
       </c>
       <c r="Z31" s="10" t="s">
         <v>32</v>
@@ -2078,10 +2081,10 @@
         <v>450</v>
       </c>
       <c r="E32" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32" s="2">
-        <v>1338</v>
+        <v>1538</v>
       </c>
       <c r="G32" s="2">
         <v>72</v>
@@ -2094,51 +2097,51 @@
       </c>
       <c r="K32">
         <f>E32*(1000/F32)</f>
-        <v>8.2212257100149468</v>
+        <v>6.5019505851755524</v>
       </c>
       <c r="L32">
         <f>K32/D32</f>
-        <v>1.8269390466699884E-2</v>
+        <v>1.4448779078167894E-2</v>
       </c>
       <c r="N32">
         <f>AA31/K32</f>
-        <v>1.7029090909090911</v>
+        <v>2.1532</v>
       </c>
       <c r="O32">
         <f>AA32/K32</f>
-        <v>4.2572727272727278</v>
+        <v>5.383</v>
       </c>
       <c r="P32">
         <f>AA33/K32</f>
-        <v>12.163636363636364</v>
+        <v>15.38</v>
       </c>
       <c r="Q32">
         <f>AA34/(K32/3)</f>
-        <v>7.2981818181818188</v>
+        <v>9.2279999999999998</v>
       </c>
       <c r="R32">
         <f>AA35/K32</f>
-        <v>5.4736363636363645</v>
+        <v>6.9210000000000003</v>
       </c>
       <c r="S32">
         <f>AA36/K32</f>
-        <v>18.245454545454546</v>
+        <v>23.07</v>
       </c>
       <c r="T32">
         <f>AA37/(K32/3)</f>
-        <v>7.2981818181818188</v>
+        <v>9.2279999999999998</v>
       </c>
       <c r="U32">
         <f>AA38/(K32/3)</f>
-        <v>9.122727272727273</v>
+        <v>11.535</v>
       </c>
       <c r="V32">
         <f>AA39/K32</f>
-        <v>30.409090909090914</v>
+        <v>38.450000000000003</v>
       </c>
       <c r="W32">
         <f>AA40/(K32/3)</f>
-        <v>12.771818181818183</v>
+        <v>16.149000000000001</v>
       </c>
       <c r="Z32" s="2" t="s">
         <v>47</v>
@@ -2167,10 +2170,10 @@
         <v>750</v>
       </c>
       <c r="E33" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F33" s="2">
-        <v>1140</v>
+        <v>1340</v>
       </c>
       <c r="G33" s="2">
         <v>80</v>
@@ -2183,51 +2186,51 @@
       </c>
       <c r="K33">
         <f>E33*(1000/F33)</f>
-        <v>12.280701754385964</v>
+        <v>8.9552238805970159</v>
       </c>
       <c r="L33">
         <f>K33/D33</f>
-        <v>1.6374269005847951E-2</v>
+        <v>1.1940298507462688E-2</v>
       </c>
       <c r="N33">
         <f>AA31/K33</f>
-        <v>1.1400000000000001</v>
+        <v>1.5633333333333332</v>
       </c>
       <c r="O33">
         <f>AA32/K33</f>
-        <v>2.85</v>
+        <v>3.9083333333333328</v>
       </c>
       <c r="P33">
         <f>AA33/K33</f>
-        <v>8.1428571428571441</v>
+        <v>11.166666666666666</v>
       </c>
       <c r="Q33">
         <f>AA34/(K33/3)</f>
-        <v>4.8857142857142861</v>
+        <v>6.6999999999999993</v>
       </c>
       <c r="R33">
         <f>AA35/K33</f>
-        <v>3.6642857142857146</v>
+        <v>5.0249999999999995</v>
       </c>
       <c r="S33">
         <f>AA36/K33</f>
-        <v>12.214285714285715</v>
+        <v>16.749999999999996</v>
       </c>
       <c r="T33">
         <f>AA37/(K33/3)</f>
-        <v>4.8857142857142861</v>
+        <v>6.6999999999999993</v>
       </c>
       <c r="U33">
         <f>AA38/(K33/3)</f>
-        <v>6.1071428571428568</v>
+        <v>8.375</v>
       </c>
       <c r="V33">
         <f>AA39/K33</f>
-        <v>20.357142857142858</v>
+        <v>27.916666666666664</v>
       </c>
       <c r="W33">
         <f>AA40/(K33/3)</f>
-        <v>8.5500000000000007</v>
+        <v>11.725</v>
       </c>
       <c r="Z33" s="2" t="s">
         <v>33</v>
@@ -2258,10 +2261,10 @@
         <v>1100</v>
       </c>
       <c r="E34" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F34" s="2">
-        <v>991</v>
+        <v>1191</v>
       </c>
       <c r="G34" s="2">
         <v>88</v>
@@ -2274,51 +2277,51 @@
       </c>
       <c r="K34">
         <f>E34*(1000/F34)</f>
-        <v>17.15438950554995</v>
+        <v>11.754827875734676</v>
       </c>
       <c r="L34">
         <f>K34/D34</f>
-        <v>1.5594899550499955E-2</v>
+        <v>1.0686207159758796E-2</v>
       </c>
       <c r="N34">
         <f>AA31/K34</f>
-        <v>0.8161176470588235</v>
+        <v>1.1910000000000001</v>
       </c>
       <c r="O34">
         <f>AA32/K34</f>
-        <v>2.0402941176470586</v>
+        <v>2.9775</v>
       </c>
       <c r="P34">
         <f>AA33/K34</f>
-        <v>5.8294117647058821</v>
+        <v>8.507142857142858</v>
       </c>
       <c r="Q34">
         <f>AA34/(K34/3)</f>
-        <v>3.4976470588235293</v>
+        <v>5.1042857142857141</v>
       </c>
       <c r="R34">
         <f>AA35/K34</f>
-        <v>2.6232352941176469</v>
+        <v>3.828214285714286</v>
       </c>
       <c r="S34">
         <f>AA36/K34</f>
-        <v>8.7441176470588236</v>
+        <v>12.760714285714286</v>
       </c>
       <c r="T34">
         <f>AA37/(K34/3)</f>
-        <v>3.4976470588235293</v>
+        <v>5.1042857142857141</v>
       </c>
       <c r="U34">
         <f>AA38/(K34/3)</f>
-        <v>4.3720588235294118</v>
+        <v>6.3803571428571431</v>
       </c>
       <c r="V34">
         <f>AA39/K34</f>
-        <v>14.573529411764705</v>
+        <v>21.267857142857142</v>
       </c>
       <c r="W34">
         <f>AA40/(K34/3)</f>
-        <v>6.1208823529411767</v>
+        <v>8.9324999999999992</v>
       </c>
       <c r="Z34" s="2" t="s">
         <v>34</v>
@@ -2349,10 +2352,10 @@
         <v>1500</v>
       </c>
       <c r="E35" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F35" s="2">
-        <v>875</v>
+        <v>1075</v>
       </c>
       <c r="G35" s="2">
         <v>96</v>
@@ -2365,51 +2368,51 @@
       </c>
       <c r="K35">
         <f>E35*(1000/F35)</f>
-        <v>22.857142857142854</v>
+        <v>14.883720930232558</v>
       </c>
       <c r="L35">
         <f>K35/D35</f>
-        <v>1.5238095238095236E-2</v>
+        <v>9.9224806201550393E-3</v>
       </c>
       <c r="N35">
         <f>AA31/K35</f>
-        <v>0.61250000000000004</v>
+        <v>0.94062500000000004</v>
       </c>
       <c r="O35">
         <f>AA32/K35</f>
-        <v>1.5312500000000002</v>
+        <v>2.3515625</v>
       </c>
       <c r="P35">
         <f>AA33/K35</f>
-        <v>4.3750000000000009</v>
+        <v>6.71875</v>
       </c>
       <c r="Q35">
         <f>AA34/(K35/3)</f>
-        <v>2.6250000000000004</v>
+        <v>4.03125</v>
       </c>
       <c r="R35">
         <f>AA35/K35</f>
-        <v>1.9687500000000002</v>
+        <v>3.0234375</v>
       </c>
       <c r="S35">
         <f>AA36/K35</f>
-        <v>6.5625000000000009</v>
+        <v>10.078125</v>
       </c>
       <c r="T35">
         <f>AA37/(K35/3)</f>
-        <v>2.6250000000000004</v>
+        <v>4.03125</v>
       </c>
       <c r="U35">
         <f>AA38/(K35/3)</f>
-        <v>3.2812500000000004</v>
+        <v>5.0390625</v>
       </c>
       <c r="V35">
         <f>AA39/K35</f>
-        <v>10.937500000000002</v>
+        <v>16.796875</v>
       </c>
       <c r="W35">
         <f>AA40/(K35/3)</f>
-        <v>4.5937500000000009</v>
+        <v>7.0546875</v>
       </c>
       <c r="Z35" s="2" t="s">
         <v>35</v>

--- a/Tower-Data.xlsx
+++ b/Tower-Data.xlsx
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -848,39 +848,39 @@
       </c>
       <c r="O3">
         <f>AA4/K3</f>
-        <v>7</v>
+        <v>5.6</v>
       </c>
       <c r="P3">
         <f>AA5/(K3/3)</f>
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="Q3">
         <f>AA6/K3</f>
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="R3">
         <f>AA7/(K3/3)</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="S3">
         <f>AA8/(K3/3)</f>
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="T3">
         <f>AA9/K3</f>
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="U3">
         <f>AA10/K3</f>
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="V3">
         <f>AA11/(K3/3)</f>
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="W3">
         <f>AA12/K3</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z3" s="10" t="s">
         <v>32</v>
@@ -935,45 +935,45 @@
       </c>
       <c r="O4">
         <f>AA4/K4</f>
-        <v>4.1150000000000002</v>
+        <v>3.2920000000000003</v>
       </c>
       <c r="P4">
         <f>AA5/(K4/3)</f>
-        <v>35.271428571428572</v>
+        <v>24.689999999999998</v>
       </c>
       <c r="Q4">
         <f>AA6/K4</f>
-        <v>2.3514285714285714</v>
+        <v>2.1162857142857145</v>
       </c>
       <c r="R4">
         <f>AA7/(K4/3)</f>
-        <v>15.872142857142856</v>
+        <v>10.581428571428571</v>
       </c>
       <c r="S4">
         <f>AA8/(K4/3)</f>
-        <v>52.907142857142858</v>
+        <v>31.744285714285713</v>
       </c>
       <c r="T4">
         <f>AA9/K4</f>
-        <v>2.3514285714285714</v>
+        <v>2.1162857142857145</v>
       </c>
       <c r="U4">
         <f>AA10/K4</f>
-        <v>2.9392857142857145</v>
+        <v>2.1162857142857145</v>
       </c>
       <c r="V4">
         <f>AA11/(K4/3)</f>
-        <v>88.178571428571431</v>
+        <v>42.325714285714284</v>
       </c>
       <c r="W4">
         <f>AA12/K4</f>
-        <v>4.1150000000000002</v>
+        <v>3.5271428571428571</v>
       </c>
       <c r="Z4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="AA4" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AB4" s="2">
         <v>0.8</v>
@@ -1022,45 +1022,45 @@
       </c>
       <c r="O5">
         <f>AA4/K5</f>
-        <v>2.6833333333333336</v>
+        <v>2.1466666666666669</v>
       </c>
       <c r="P5">
         <f>AA5/(K5/3)</f>
-        <v>23</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="Q5">
         <f>AA6/K5</f>
-        <v>1.5333333333333334</v>
+        <v>1.3800000000000001</v>
       </c>
       <c r="R5">
         <f>AA7/(K5/3)</f>
-        <v>10.350000000000001</v>
+        <v>6.9</v>
       </c>
       <c r="S5">
         <f>AA8/(K5/3)</f>
-        <v>34.5</v>
+        <v>20.700000000000003</v>
       </c>
       <c r="T5">
         <f>AA9/K5</f>
-        <v>1.5333333333333334</v>
+        <v>1.3800000000000001</v>
       </c>
       <c r="U5">
         <f>AA10/K5</f>
-        <v>1.9166666666666667</v>
+        <v>1.3800000000000001</v>
       </c>
       <c r="V5">
         <f>AA11/(K5/3)</f>
-        <v>57.5</v>
+        <v>27.6</v>
       </c>
       <c r="W5">
         <f>AA12/K5</f>
-        <v>2.6833333333333336</v>
+        <v>2.3000000000000003</v>
       </c>
       <c r="Z5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="AA5" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AB5" s="2">
         <v>0.2</v>
@@ -1111,45 +1111,45 @@
       </c>
       <c r="O6">
         <f>AA4/K6</f>
-        <v>1.8518181818181818</v>
+        <v>1.4814545454545454</v>
       </c>
       <c r="P6">
         <f>AA5/(K6/3)</f>
-        <v>15.872727272727273</v>
+        <v>11.110909090909091</v>
       </c>
       <c r="Q6">
         <f>AA6/K6</f>
-        <v>1.0581818181818181</v>
+        <v>0.9523636363636363</v>
       </c>
       <c r="R6">
         <f>AA7/(K6/3)</f>
-        <v>7.1427272727272726</v>
+        <v>4.7618181818181817</v>
       </c>
       <c r="S6">
         <f>AA8/(K6/3)</f>
-        <v>23.809090909090909</v>
+        <v>14.285454545454545</v>
       </c>
       <c r="T6">
         <f>AA9/K6</f>
-        <v>1.0581818181818181</v>
+        <v>0.9523636363636363</v>
       </c>
       <c r="U6">
         <f>AA10/K6</f>
-        <v>1.3227272727272728</v>
+        <v>0.9523636363636363</v>
       </c>
       <c r="V6">
         <f>AA11/(K6/3)</f>
-        <v>39.68181818181818</v>
+        <v>19.047272727272727</v>
       </c>
       <c r="W6">
         <f>AA12/K6</f>
-        <v>1.8518181818181818</v>
+        <v>1.5872727272727272</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="AA6" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB6" s="2">
         <v>1.6</v>
@@ -1200,45 +1200,45 @@
       </c>
       <c r="O7">
         <f>AA4/K7</f>
-        <v>1.3461538461538463</v>
+        <v>1.0769230769230769</v>
       </c>
       <c r="P7">
         <f>AA5/(K7/3)</f>
-        <v>11.53846153846154</v>
+        <v>8.0769230769230766</v>
       </c>
       <c r="Q7">
         <f>AA6/K7</f>
-        <v>0.76923076923076927</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="R7">
         <f>AA7/(K7/3)</f>
-        <v>5.1923076923076925</v>
+        <v>3.4615384615384617</v>
       </c>
       <c r="S7">
         <f>AA8/(K7/3)</f>
-        <v>17.30769230769231</v>
+        <v>10.384615384615385</v>
       </c>
       <c r="T7">
         <f>AA9/K7</f>
-        <v>0.76923076923076927</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="U7">
         <f>AA10/K7</f>
-        <v>0.96153846153846156</v>
+        <v>0.69230769230769229</v>
       </c>
       <c r="V7">
         <f>AA11/(K7/3)</f>
-        <v>28.846153846153847</v>
+        <v>13.846153846153847</v>
       </c>
       <c r="W7">
         <f>AA12/K7</f>
-        <v>1.3461538461538463</v>
+        <v>1.1538461538461537</v>
       </c>
       <c r="Z7" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA7" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AB7" s="2">
         <v>1</v>
@@ -1255,7 +1255,7 @@
         <v>36</v>
       </c>
       <c r="AA8" s="2">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AB8" s="2">
         <v>0.6</v>
@@ -1272,7 +1272,7 @@
         <v>37</v>
       </c>
       <c r="AA9" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB9" s="2">
         <v>0.8</v>
@@ -1289,7 +1289,7 @@
         <v>38</v>
       </c>
       <c r="AA10" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AB10" s="2">
         <v>1.6</v>
@@ -1306,7 +1306,7 @@
         <v>39</v>
       </c>
       <c r="AA11" s="2">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AB11" s="2">
         <v>0.4</v>
@@ -1323,7 +1323,7 @@
         <v>60</v>
       </c>
       <c r="AA12" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB12" s="2">
         <v>1</v>
@@ -1439,39 +1439,39 @@
       </c>
       <c r="O16">
         <f>AA17/K16</f>
-        <v>4.9500000000000011</v>
+        <v>3.9600000000000009</v>
       </c>
       <c r="P16">
         <f>AA18/K16</f>
-        <v>14.142857142857146</v>
+        <v>9.9000000000000021</v>
       </c>
       <c r="Q16">
         <f>AA19/(K16/3)</f>
-        <v>8.4857142857142875</v>
+        <v>7.6371428571428588</v>
       </c>
       <c r="R16">
         <f>AA20/K16</f>
-        <v>6.3642857142857157</v>
+        <v>4.2428571428571438</v>
       </c>
       <c r="S16">
         <f>AA21/K16</f>
-        <v>21.214285714285719</v>
+        <v>12.728571428571431</v>
       </c>
       <c r="T16">
         <f>AA22/K16</f>
-        <v>2.8285714285714292</v>
+        <v>2.5457142857142863</v>
       </c>
       <c r="U16">
         <f>AA23/K16</f>
-        <v>3.5357142857142865</v>
+        <v>2.5457142857142863</v>
       </c>
       <c r="V16">
         <f>AA24/K16</f>
-        <v>35.357142857142868</v>
+        <v>16.971428571428575</v>
       </c>
       <c r="W16">
         <f>AA25/(K16/3)</f>
-        <v>14.850000000000003</v>
+        <v>12.728571428571431</v>
       </c>
       <c r="Z16" s="10" t="s">
         <v>32</v>
@@ -1527,45 +1527,45 @@
       </c>
       <c r="O17">
         <f>AA17/K17</f>
-        <v>2.9293478260869565</v>
+        <v>2.3434782608695652</v>
       </c>
       <c r="P17">
         <f>AA18/K17</f>
-        <v>8.3695652173913047</v>
+        <v>5.8586956521739131</v>
       </c>
       <c r="Q17">
         <f>AA19/(K17/3)</f>
-        <v>5.0217391304347831</v>
+        <v>4.519565217391305</v>
       </c>
       <c r="R17">
         <f>AA20/K17</f>
-        <v>3.7663043478260869</v>
+        <v>2.5108695652173916</v>
       </c>
       <c r="S17">
         <f>AA21/K17</f>
-        <v>12.554347826086957</v>
+        <v>7.5326086956521738</v>
       </c>
       <c r="T17">
         <f>AA22/K17</f>
-        <v>1.673913043478261</v>
+        <v>1.5065217391304349</v>
       </c>
       <c r="U17">
         <f>AA23/K17</f>
-        <v>2.0923913043478262</v>
+        <v>1.5065217391304349</v>
       </c>
       <c r="V17">
         <f>AA24/K17</f>
-        <v>20.923913043478262</v>
+        <v>10.043478260869566</v>
       </c>
       <c r="W17">
         <f>AA25/(K17/3)</f>
-        <v>8.788043478260871</v>
+        <v>7.5326086956521747</v>
       </c>
       <c r="Z17" s="2" t="s">
         <v>47</v>
       </c>
       <c r="AA17" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AB17" s="2">
         <v>0.8</v>
@@ -1614,45 +1614,45 @@
       </c>
       <c r="O18">
         <f>AA17/K18</f>
-        <v>2.0453125000000001</v>
+        <v>1.63625</v>
       </c>
       <c r="P18">
         <f>AA18/K18</f>
-        <v>5.84375</v>
+        <v>4.0906250000000002</v>
       </c>
       <c r="Q18">
         <f>AA19/(K18/3)</f>
-        <v>3.5062500000000001</v>
+        <v>3.1556250000000001</v>
       </c>
       <c r="R18">
         <f>AA20/K18</f>
-        <v>2.6296874999999997</v>
+        <v>1.7531249999999998</v>
       </c>
       <c r="S18">
         <f>AA21/K18</f>
-        <v>8.765625</v>
+        <v>5.2593749999999995</v>
       </c>
       <c r="T18">
         <f>AA22/K18</f>
-        <v>1.16875</v>
+        <v>1.0518749999999999</v>
       </c>
       <c r="U18">
         <f>AA23/K18</f>
-        <v>1.4609375</v>
+        <v>1.0518749999999999</v>
       </c>
       <c r="V18">
         <f>AA24/K18</f>
-        <v>14.609375</v>
+        <v>7.0124999999999993</v>
       </c>
       <c r="W18">
         <f>AA25/(K18/3)</f>
-        <v>6.1359374999999998</v>
+        <v>5.2593750000000004</v>
       </c>
       <c r="Z18" s="2" t="s">
         <v>33</v>
       </c>
       <c r="AA18" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AB18" s="2">
         <v>0.2</v>
@@ -1704,45 +1704,45 @@
       </c>
       <c r="O19">
         <f>AA17/K19</f>
-        <v>1.5493902439024392</v>
+        <v>1.2395121951219514</v>
       </c>
       <c r="P19">
         <f>AA18/K19</f>
-        <v>4.4268292682926838</v>
+        <v>3.0987804878048784</v>
       </c>
       <c r="Q19">
         <f>AA19/(K19/3)</f>
-        <v>2.6560975609756103</v>
+        <v>2.3904878048780493</v>
       </c>
       <c r="R19">
         <f>AA20/K19</f>
-        <v>1.9920731707317076</v>
+        <v>1.3280487804878052</v>
       </c>
       <c r="S19">
         <f>AA21/K19</f>
-        <v>6.6402439024390256</v>
+        <v>3.9841463414634153</v>
       </c>
       <c r="T19">
         <f>AA22/K19</f>
-        <v>0.88536585365853671</v>
+        <v>0.79682926829268308</v>
       </c>
       <c r="U19">
         <f>AA23/K19</f>
-        <v>1.1067073170731709</v>
+        <v>0.79682926829268308</v>
       </c>
       <c r="V19">
         <f>AA24/K19</f>
-        <v>11.067073170731708</v>
+        <v>5.3121951219512207</v>
       </c>
       <c r="W19">
         <f>AA25/(K19/3)</f>
-        <v>4.6481707317073182</v>
+        <v>3.9841463414634153</v>
       </c>
       <c r="Z19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="AA19" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB19" s="2">
         <v>1.6</v>
@@ -1793,45 +1793,45 @@
       </c>
       <c r="O20">
         <f>AA17/K20</f>
-        <v>1.232</v>
+        <v>0.98559999999999992</v>
       </c>
       <c r="P20">
         <f>AA18/K20</f>
-        <v>3.52</v>
+        <v>2.464</v>
       </c>
       <c r="Q20">
         <f>AA19/(K20/3)</f>
-        <v>2.1119999999999997</v>
+        <v>1.9007999999999998</v>
       </c>
       <c r="R20">
         <f>AA20/K20</f>
-        <v>1.5839999999999999</v>
+        <v>1.056</v>
       </c>
       <c r="S20">
         <f>AA21/K20</f>
-        <v>5.28</v>
+        <v>3.1679999999999997</v>
       </c>
       <c r="T20">
         <f>AA22/K20</f>
-        <v>0.70399999999999996</v>
+        <v>0.63359999999999994</v>
       </c>
       <c r="U20">
         <f>AA23/K20</f>
-        <v>0.88</v>
+        <v>0.63359999999999994</v>
       </c>
       <c r="V20">
         <f>AA24/K20</f>
-        <v>8.7999999999999989</v>
+        <v>4.2240000000000002</v>
       </c>
       <c r="W20">
         <f>AA25/(K20/3)</f>
-        <v>3.6959999999999997</v>
+        <v>3.1679999999999997</v>
       </c>
       <c r="Z20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA20" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AB20" s="2">
         <v>1</v>
@@ -1849,7 +1849,7 @@
         <v>36</v>
       </c>
       <c r="AA21" s="2">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AB21" s="2">
         <v>0.6</v>
@@ -1867,7 +1867,7 @@
         <v>37</v>
       </c>
       <c r="AA22" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB22" s="2">
         <v>0.8</v>
@@ -1885,7 +1885,7 @@
         <v>38</v>
       </c>
       <c r="AA23" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AB23" s="2">
         <v>1.6</v>
@@ -1903,7 +1903,7 @@
         <v>39</v>
       </c>
       <c r="AA24" s="2">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AB24" s="2">
         <v>0.4</v>
@@ -1921,7 +1921,7 @@
         <v>60</v>
       </c>
       <c r="AA25" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB25" s="13">
         <v>1</v>
@@ -2020,39 +2020,39 @@
       </c>
       <c r="O31">
         <f>AA32/K31</f>
-        <v>7.9450000000000003</v>
+        <v>6.3560000000000008</v>
       </c>
       <c r="P31">
         <f>AA33/K31</f>
-        <v>22.700000000000003</v>
+        <v>15.89</v>
       </c>
       <c r="Q31">
         <f>AA34/(K31/3)</f>
-        <v>13.620000000000001</v>
+        <v>12.258000000000001</v>
       </c>
       <c r="R31">
         <f>AA35/K31</f>
-        <v>10.215000000000002</v>
+        <v>6.8100000000000005</v>
       </c>
       <c r="S31">
         <f>AA36/K31</f>
-        <v>34.050000000000004</v>
+        <v>20.430000000000003</v>
       </c>
       <c r="T31">
         <f>AA37/(K31/3)</f>
-        <v>13.620000000000001</v>
+        <v>12.258000000000001</v>
       </c>
       <c r="U31">
         <f>AA38/(K31/3)</f>
-        <v>17.025000000000002</v>
+        <v>12.258000000000001</v>
       </c>
       <c r="V31">
         <f>AA39/K31</f>
-        <v>56.750000000000007</v>
+        <v>27.240000000000002</v>
       </c>
       <c r="W31">
         <f>AA40/(K31/3)</f>
-        <v>23.835000000000001</v>
+        <v>20.430000000000003</v>
       </c>
       <c r="Z31" s="10" t="s">
         <v>32</v>
@@ -2109,45 +2109,45 @@
       </c>
       <c r="O32">
         <f>AA32/K32</f>
-        <v>5.383</v>
+        <v>4.3064</v>
       </c>
       <c r="P32">
         <f>AA33/K32</f>
-        <v>15.38</v>
+        <v>10.766</v>
       </c>
       <c r="Q32">
         <f>AA34/(K32/3)</f>
-        <v>9.2279999999999998</v>
+        <v>8.305200000000001</v>
       </c>
       <c r="R32">
         <f>AA35/K32</f>
-        <v>6.9210000000000003</v>
+        <v>4.6139999999999999</v>
       </c>
       <c r="S32">
         <f>AA36/K32</f>
-        <v>23.07</v>
+        <v>13.842000000000001</v>
       </c>
       <c r="T32">
         <f>AA37/(K32/3)</f>
-        <v>9.2279999999999998</v>
+        <v>8.305200000000001</v>
       </c>
       <c r="U32">
         <f>AA38/(K32/3)</f>
-        <v>11.535</v>
+        <v>8.305200000000001</v>
       </c>
       <c r="V32">
         <f>AA39/K32</f>
-        <v>38.450000000000003</v>
+        <v>18.456</v>
       </c>
       <c r="W32">
         <f>AA40/(K32/3)</f>
-        <v>16.149000000000001</v>
+        <v>13.842000000000001</v>
       </c>
       <c r="Z32" s="2" t="s">
         <v>47</v>
       </c>
       <c r="AA32" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AB32" s="2">
         <v>0.8</v>
@@ -2198,45 +2198,45 @@
       </c>
       <c r="O33">
         <f>AA32/K33</f>
-        <v>3.9083333333333328</v>
+        <v>3.1266666666666665</v>
       </c>
       <c r="P33">
         <f>AA33/K33</f>
-        <v>11.166666666666666</v>
+        <v>7.8166666666666655</v>
       </c>
       <c r="Q33">
         <f>AA34/(K33/3)</f>
-        <v>6.6999999999999993</v>
+        <v>6.0299999999999994</v>
       </c>
       <c r="R33">
         <f>AA35/K33</f>
-        <v>5.0249999999999995</v>
+        <v>3.3499999999999996</v>
       </c>
       <c r="S33">
         <f>AA36/K33</f>
-        <v>16.749999999999996</v>
+        <v>10.049999999999999</v>
       </c>
       <c r="T33">
         <f>AA37/(K33/3)</f>
-        <v>6.6999999999999993</v>
+        <v>6.0299999999999994</v>
       </c>
       <c r="U33">
         <f>AA38/(K33/3)</f>
-        <v>8.375</v>
+        <v>6.0299999999999994</v>
       </c>
       <c r="V33">
         <f>AA39/K33</f>
-        <v>27.916666666666664</v>
+        <v>13.399999999999999</v>
       </c>
       <c r="W33">
         <f>AA40/(K33/3)</f>
-        <v>11.725</v>
+        <v>10.049999999999999</v>
       </c>
       <c r="Z33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="AA33" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AB33" s="2">
         <v>0.2</v>
@@ -2289,45 +2289,45 @@
       </c>
       <c r="O34">
         <f>AA32/K34</f>
-        <v>2.9775</v>
+        <v>2.3820000000000001</v>
       </c>
       <c r="P34">
         <f>AA33/K34</f>
-        <v>8.507142857142858</v>
+        <v>5.9550000000000001</v>
       </c>
       <c r="Q34">
         <f>AA34/(K34/3)</f>
-        <v>5.1042857142857141</v>
+        <v>4.5938571428571429</v>
       </c>
       <c r="R34">
         <f>AA35/K34</f>
-        <v>3.828214285714286</v>
+        <v>2.552142857142857</v>
       </c>
       <c r="S34">
         <f>AA36/K34</f>
-        <v>12.760714285714286</v>
+        <v>7.656428571428572</v>
       </c>
       <c r="T34">
         <f>AA37/(K34/3)</f>
-        <v>5.1042857142857141</v>
+        <v>4.5938571428571429</v>
       </c>
       <c r="U34">
         <f>AA38/(K34/3)</f>
-        <v>6.3803571428571431</v>
+        <v>4.5938571428571429</v>
       </c>
       <c r="V34">
         <f>AA39/K34</f>
-        <v>21.267857142857142</v>
+        <v>10.208571428571428</v>
       </c>
       <c r="W34">
         <f>AA40/(K34/3)</f>
-        <v>8.9324999999999992</v>
+        <v>7.6564285714285711</v>
       </c>
       <c r="Z34" s="2" t="s">
         <v>34</v>
       </c>
       <c r="AA34" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB34" s="2">
         <v>1.6</v>
@@ -2380,45 +2380,45 @@
       </c>
       <c r="O35">
         <f>AA32/K35</f>
-        <v>2.3515625</v>
+        <v>1.8812500000000001</v>
       </c>
       <c r="P35">
         <f>AA33/K35</f>
-        <v>6.71875</v>
+        <v>4.703125</v>
       </c>
       <c r="Q35">
         <f>AA34/(K35/3)</f>
-        <v>4.03125</v>
+        <v>3.6281250000000003</v>
       </c>
       <c r="R35">
         <f>AA35/K35</f>
-        <v>3.0234375</v>
+        <v>2.015625</v>
       </c>
       <c r="S35">
         <f>AA36/K35</f>
-        <v>10.078125</v>
+        <v>6.046875</v>
       </c>
       <c r="T35">
         <f>AA37/(K35/3)</f>
-        <v>4.03125</v>
+        <v>3.6281250000000003</v>
       </c>
       <c r="U35">
         <f>AA38/(K35/3)</f>
-        <v>5.0390625</v>
+        <v>3.6281250000000003</v>
       </c>
       <c r="V35">
         <f>AA39/K35</f>
-        <v>16.796875</v>
+        <v>8.0625</v>
       </c>
       <c r="W35">
         <f>AA40/(K35/3)</f>
-        <v>7.0546875</v>
+        <v>6.046875</v>
       </c>
       <c r="Z35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA35" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AB35" s="2">
         <v>1</v>
@@ -2436,7 +2436,7 @@
         <v>36</v>
       </c>
       <c r="AA36" s="2">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AB36" s="2">
         <v>0.6</v>
@@ -2453,7 +2453,7 @@
         <v>37</v>
       </c>
       <c r="AA37" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB37" s="2">
         <v>0.8</v>
@@ -2470,7 +2470,7 @@
         <v>38</v>
       </c>
       <c r="AA38" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AB38" s="2">
         <v>1.6</v>
@@ -2487,7 +2487,7 @@
         <v>39</v>
       </c>
       <c r="AA39" s="2">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AB39" s="2">
         <v>0.4</v>
@@ -2504,7 +2504,7 @@
         <v>60</v>
       </c>
       <c r="AA40" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB40" s="13">
         <v>1</v>
@@ -2594,39 +2594,39 @@
       </c>
       <c r="O50">
         <f>AA51/K50</f>
-        <v>11.666666666666666</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="P50">
         <f>AA52/K50</f>
-        <v>33.333333333333336</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="Q50">
         <f>AA53/(K50/3)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R50">
         <f>AA54/K50</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S50">
         <f>AA55/K50</f>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="T50">
         <f>AA56/(K50/3)</f>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U50">
         <f>AA57/(K50/3)</f>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="V50">
         <f>AA58/K50</f>
-        <v>83.333333333333329</v>
+        <v>50</v>
       </c>
       <c r="W50">
         <f>AA59/(K50/3)</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Z50" s="10" t="s">
         <v>32</v>
@@ -2683,45 +2683,45 @@
       </c>
       <c r="O51">
         <f>AA51/K51</f>
-        <v>7.2887500000000003</v>
+        <v>5.8310000000000004</v>
       </c>
       <c r="P51">
         <f>AA52/K51</f>
-        <v>20.825000000000003</v>
+        <v>14.577500000000001</v>
       </c>
       <c r="Q51">
         <f>AA53/(K51/3)</f>
-        <v>12.495000000000001</v>
+        <v>11.245500000000002</v>
       </c>
       <c r="R51">
         <f>AA54/K51</f>
-        <v>9.3712499999999999</v>
+        <v>6.2475000000000005</v>
       </c>
       <c r="S51">
         <f>AA55/K51</f>
-        <v>31.237500000000001</v>
+        <v>20.825000000000003</v>
       </c>
       <c r="T51">
         <f>AA56/(K51/3)</f>
-        <v>12.495000000000001</v>
+        <v>11.245500000000002</v>
       </c>
       <c r="U51">
         <f>AA57/(K51/3)</f>
-        <v>15.61875</v>
+        <v>11.245500000000002</v>
       </c>
       <c r="V51">
         <f>AA58/K51</f>
-        <v>52.0625</v>
+        <v>31.237500000000001</v>
       </c>
       <c r="W51">
         <f>AA59/(K51/3)</f>
-        <v>21.866250000000001</v>
+        <v>18.7425</v>
       </c>
       <c r="Z51" s="2" t="s">
         <v>47</v>
       </c>
       <c r="AA51" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AB51" s="2">
         <v>0.8</v>
@@ -2772,45 +2772,45 @@
       </c>
       <c r="O52">
         <f>AA51/K52</f>
-        <v>4.9980000000000002</v>
+        <v>3.9984000000000002</v>
       </c>
       <c r="P52">
         <f>AA52/K52</f>
-        <v>14.28</v>
+        <v>9.9960000000000004</v>
       </c>
       <c r="Q52">
         <f>AA53/(K52/3)</f>
-        <v>8.5679999999999996</v>
+        <v>7.7111999999999998</v>
       </c>
       <c r="R52">
         <f>AA54/K52</f>
-        <v>6.4260000000000002</v>
+        <v>4.2839999999999998</v>
       </c>
       <c r="S52">
         <f>AA55/K52</f>
-        <v>21.42</v>
+        <v>14.28</v>
       </c>
       <c r="T52">
         <f>AA56/(K52/3)</f>
-        <v>8.5679999999999996</v>
+        <v>7.7111999999999998</v>
       </c>
       <c r="U52">
         <f>AA57/(K52/3)</f>
-        <v>10.709999999999999</v>
+        <v>7.7111999999999998</v>
       </c>
       <c r="V52">
         <f>AA58/K52</f>
-        <v>35.700000000000003</v>
+        <v>21.42</v>
       </c>
       <c r="W52">
         <f>AA59/(K52/3)</f>
-        <v>14.994</v>
+        <v>12.851999999999999</v>
       </c>
       <c r="Z52" s="2" t="s">
         <v>33</v>
       </c>
       <c r="AA52" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AB52" s="2">
         <v>0.2</v>
@@ -2863,45 +2863,45 @@
       </c>
       <c r="O53">
         <f>AA51/K53</f>
-        <v>3.6458333333333326</v>
+        <v>2.9166666666666661</v>
       </c>
       <c r="P53">
         <f>AA52/K53</f>
-        <v>10.416666666666664</v>
+        <v>7.2916666666666652</v>
       </c>
       <c r="Q53">
         <f>AA53/(K53/3)</f>
-        <v>6.2499999999999991</v>
+        <v>5.6249999999999991</v>
       </c>
       <c r="R53">
         <f>AA54/K53</f>
-        <v>4.6874999999999991</v>
+        <v>3.1249999999999996</v>
       </c>
       <c r="S53">
         <f>AA55/K53</f>
-        <v>15.624999999999998</v>
+        <v>10.416666666666664</v>
       </c>
       <c r="T53">
         <f>AA56/(K53/3)</f>
-        <v>6.2499999999999991</v>
+        <v>5.6249999999999991</v>
       </c>
       <c r="U53">
         <f>AA57/(K53/3)</f>
-        <v>7.8124999999999982</v>
+        <v>5.6249999999999991</v>
       </c>
       <c r="V53">
         <f>AA58/K53</f>
-        <v>26.041666666666664</v>
+        <v>15.624999999999998</v>
       </c>
       <c r="W53">
         <f>AA59/(K53/3)</f>
-        <v>10.937499999999998</v>
+        <v>9.3749999999999982</v>
       </c>
       <c r="Z53" s="2" t="s">
         <v>34</v>
       </c>
       <c r="AA53" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB53" s="2">
         <v>1.6</v>
@@ -2954,45 +2954,45 @@
       </c>
       <c r="O54">
         <f>AA51/K54</f>
-        <v>2.7749999999999999</v>
+        <v>2.2199999999999998</v>
       </c>
       <c r="P54">
         <f>AA52/K54</f>
-        <v>7.9285714285714279</v>
+        <v>5.55</v>
       </c>
       <c r="Q54">
         <f>AA53/(K54/3)</f>
-        <v>4.7571428571428571</v>
+        <v>4.2814285714285711</v>
       </c>
       <c r="R54">
         <f>AA54/K54</f>
-        <v>3.5678571428571426</v>
+        <v>2.3785714285714286</v>
       </c>
       <c r="S54">
         <f>AA55/K54</f>
-        <v>11.892857142857142</v>
+        <v>7.9285714285714279</v>
       </c>
       <c r="T54">
         <f>AA56/(K54/3)</f>
-        <v>4.7571428571428571</v>
+        <v>4.2814285714285711</v>
       </c>
       <c r="U54">
         <f>AA57/(K54/3)</f>
-        <v>5.9464285714285712</v>
+        <v>4.2814285714285711</v>
       </c>
       <c r="V54">
         <f>AA58/K54</f>
-        <v>19.821428571428569</v>
+        <v>11.892857142857142</v>
       </c>
       <c r="W54">
         <f>AA59/(K54/3)</f>
-        <v>8.3249999999999993</v>
+        <v>7.1357142857142852</v>
       </c>
       <c r="Z54" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AA54" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AB54" s="2">
         <v>1</v>
@@ -3009,7 +3009,7 @@
         <v>36</v>
       </c>
       <c r="AA55" s="2">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AB55" s="2">
         <v>0.6</v>
@@ -3026,7 +3026,7 @@
         <v>37</v>
       </c>
       <c r="AA56" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB56" s="2">
         <v>0.8</v>
@@ -3043,7 +3043,7 @@
         <v>38</v>
       </c>
       <c r="AA57" s="2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AB57" s="2">
         <v>1.6</v>
@@ -3060,7 +3060,7 @@
         <v>39</v>
       </c>
       <c r="AA58" s="2">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="AB58" s="2">
         <v>0.4</v>
@@ -3077,7 +3077,7 @@
         <v>60</v>
       </c>
       <c r="AA59" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB59" s="13">
         <v>1</v>
